--- a/Quant.xlsx
+++ b/Quant.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shkre\code\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534691AB-3A00-41C1-94AC-EBE6A11A69EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB11944C-903E-4356-8023-48513329D1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-49320" yWindow="1755" windowWidth="21720" windowHeight="17280" activeTab="1" xr2:uid="{DA2D957E-5861-43EB-9FC6-1F5EA20FA189}"/>
+    <workbookView xWindow="-49455" yWindow="1920" windowWidth="36105" windowHeight="16290" firstSheet="2" activeTab="10" xr2:uid="{DA2D957E-5861-43EB-9FC6-1F5EA20FA189}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="8" r:id="rId1"/>
@@ -22,6 +22,8 @@
     <sheet name="3-18-25" sheetId="5" r:id="rId7"/>
     <sheet name="3-19-25" sheetId="6" r:id="rId8"/>
     <sheet name="3-20-25" sheetId="7" r:id="rId9"/>
+    <sheet name="4-22-25" sheetId="10" r:id="rId10"/>
+    <sheet name="4-23-25" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="367" uniqueCount="99">
   <si>
     <t>Stock</t>
   </si>
@@ -216,6 +218,132 @@
   <si>
     <t>Avellaneda, Stoikov</t>
   </si>
+  <si>
+    <t>ACN</t>
+  </si>
+  <si>
+    <t>AMGN</t>
+  </si>
+  <si>
+    <t>ASML</t>
+  </si>
+  <si>
+    <t>AXP</t>
+  </si>
+  <si>
+    <t>BX</t>
+  </si>
+  <si>
+    <t>GE</t>
+  </si>
+  <si>
+    <t>HD</t>
+  </si>
+  <si>
+    <t>IBM</t>
+  </si>
+  <si>
+    <t>INTU</t>
+  </si>
+  <si>
+    <t>ISRG</t>
+  </si>
+  <si>
+    <t>LIN</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>MRK</t>
+  </si>
+  <si>
+    <t>MS</t>
+  </si>
+  <si>
+    <t>NOW</t>
+  </si>
+  <si>
+    <t>PEP</t>
+  </si>
+  <si>
+    <t>PGR</t>
+  </si>
+  <si>
+    <t>PLTR</t>
+  </si>
+  <si>
+    <t>PM</t>
+  </si>
+  <si>
+    <t>QCOM</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>AZN</t>
+  </si>
+  <si>
+    <t>RTX</t>
+  </si>
+  <si>
+    <t>TMO</t>
+  </si>
+  <si>
+    <t>VZ</t>
+  </si>
+  <si>
+    <t>BUYS</t>
+  </si>
+  <si>
+    <t>SELLS</t>
+  </si>
+  <si>
+    <t>B AVG</t>
+  </si>
+  <si>
+    <t>S AVG</t>
+  </si>
+  <si>
+    <t>B VAL</t>
+  </si>
+  <si>
+    <t>S VAL</t>
+  </si>
+  <si>
+    <t>NVS</t>
+  </si>
+  <si>
+    <t>GS</t>
+  </si>
+  <si>
+    <t>UBER</t>
+  </si>
+  <si>
+    <t>Realized</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Opened</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>DIS</t>
+  </si>
 </sst>
 </file>
 
@@ -225,13 +353,19 @@
     <numFmt numFmtId="164" formatCode="#,##0.0000"/>
     <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -310,10 +444,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -322,44 +456,52 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="4" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="10" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -367,14 +509,22 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="10" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -729,11 +879,4229 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{51F32286-39EB-4C09-9B46-BD8B474C16D1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA9337A-B1D7-42EC-A1D4-3B6681D08C9F}">
+  <dimension ref="A1:X64"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="2" width="9.140625" style="46"/>
+    <col min="3" max="5" width="9.140625" style="47"/>
+    <col min="6" max="6" width="9.140625" style="46"/>
+    <col min="7" max="7" width="11.140625" style="48" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="48" customWidth="1"/>
+    <col min="9" max="10" width="9.140625" style="51"/>
+    <col min="11" max="14" width="9.140625" style="46"/>
+    <col min="15" max="15" width="9.140625" style="52"/>
+    <col min="16" max="16" width="9.140625" style="46"/>
+    <col min="17" max="18" width="9.140625" style="52"/>
+    <col min="19" max="22" width="9.140625" style="46"/>
+    <col min="23" max="23" width="9.140625" style="52"/>
+    <col min="24" max="16384" width="9.140625" style="46"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="A1" s="46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="I2" s="51">
+        <f>SUM(I4:I64)</f>
+        <v>2183136.8642800003</v>
+      </c>
+      <c r="J2" s="51">
+        <f>SUM(J4:J64)</f>
+        <v>2072787.3284999991</v>
+      </c>
+      <c r="K2" s="14">
+        <f>+J2+I2</f>
+        <v>4255924.1927799992</v>
+      </c>
+      <c r="M2" s="16">
+        <f>SUM(M4:M64)</f>
+        <v>648.23512000002563</v>
+      </c>
+      <c r="R2" s="16">
+        <f>SUM(R4:R71)</f>
+        <v>-423.01090000000056</v>
+      </c>
+      <c r="S2" s="16">
+        <f>+R2+M2</f>
+        <v>225.22422000002507</v>
+      </c>
+      <c r="T2" s="46">
+        <f>+S2/50000</f>
+        <v>4.504484400000501E-3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="C3" s="47" t="s">
+        <v>79</v>
+      </c>
+      <c r="D3" s="47" t="s">
+        <v>84</v>
+      </c>
+      <c r="E3" s="47" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="47" t="s">
+        <v>1</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="I3" s="51" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="51" t="s">
+        <v>89</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>1</v>
+      </c>
+      <c r="L3" s="47" t="s">
+        <v>94</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="N3" s="47" t="s">
+        <v>95</v>
+      </c>
+      <c r="P3" s="47" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q3" s="53" t="s">
+        <v>97</v>
+      </c>
+      <c r="R3" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="W3" s="16">
+        <f>SUM(W4:W64)</f>
+        <v>1429.5900000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B4" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="47">
+        <v>0</v>
+      </c>
+      <c r="D4" s="47">
+        <v>293</v>
+      </c>
+      <c r="E4" s="47">
+        <v>318</v>
+      </c>
+      <c r="F4" s="47"/>
+      <c r="G4" s="49">
+        <v>205.28102000000001</v>
+      </c>
+      <c r="H4" s="49">
+        <v>205.15132</v>
+      </c>
+      <c r="I4" s="51">
+        <f>+G4*D4</f>
+        <v>60147.338860000003</v>
+      </c>
+      <c r="J4" s="51">
+        <f>+E4*H4</f>
+        <v>65238.119760000001</v>
+      </c>
+      <c r="K4" s="52">
+        <f t="shared" ref="K4:K14" si="0">+H4-G4</f>
+        <v>-0.12970000000001392</v>
+      </c>
+      <c r="L4" s="46">
+        <f>IF(D4&lt;E4,D4,E4)</f>
+        <v>293</v>
+      </c>
+      <c r="M4" s="52">
+        <f>+L4*K4</f>
+        <v>-38.002100000004077</v>
+      </c>
+      <c r="N4" s="51">
+        <f>+D4-E4</f>
+        <v>-25</v>
+      </c>
+      <c r="O4" s="52">
+        <f>IF(D4&gt;E4,G4,H4)</f>
+        <v>205.15132</v>
+      </c>
+      <c r="P4" s="50">
+        <f>+N4*O4</f>
+        <v>-5128.7830000000004</v>
+      </c>
+      <c r="Q4" s="52">
+        <v>203.61</v>
+      </c>
+      <c r="R4" s="52">
+        <f>(Q4-O4)*N4</f>
+        <v>38.532999999999618</v>
+      </c>
+      <c r="W4" s="52">
+        <v>34.71</v>
+      </c>
+      <c r="X4" s="46">
+        <f t="shared" ref="X4:X13" si="1">+W4/(J4+I4)</f>
+        <v>2.7682635914898245E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B5" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" s="47">
+        <v>-24</v>
+      </c>
+      <c r="D5" s="47">
+        <v>246</v>
+      </c>
+      <c r="E5" s="47">
+        <v>240</v>
+      </c>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48">
+        <v>176.0539</v>
+      </c>
+      <c r="H5" s="48">
+        <v>176.20400000000001</v>
+      </c>
+      <c r="I5" s="51">
+        <f>+G5*D5</f>
+        <v>43309.259400000003</v>
+      </c>
+      <c r="J5" s="51">
+        <f>+E5*H5</f>
+        <v>42288.959999999999</v>
+      </c>
+      <c r="K5" s="52">
+        <f t="shared" si="0"/>
+        <v>0.150100000000009</v>
+      </c>
+      <c r="L5" s="46">
+        <f t="shared" ref="L5:L64" si="2">IF(D5&lt;E5,D5,E5)</f>
+        <v>240</v>
+      </c>
+      <c r="M5" s="52">
+        <f t="shared" ref="M5:M64" si="3">+L5*K5</f>
+        <v>36.024000000002161</v>
+      </c>
+      <c r="N5" s="51">
+        <f>+D5-E5</f>
+        <v>6</v>
+      </c>
+      <c r="O5" s="52">
+        <f>IF(D5&gt;E5,G5,H5)</f>
+        <v>176.0539</v>
+      </c>
+      <c r="P5" s="50">
+        <f t="shared" ref="P5:P64" si="4">+N5*O5</f>
+        <v>1056.3234</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>177.05</v>
+      </c>
+      <c r="R5" s="52">
+        <f>(Q5-O5)*N5</f>
+        <v>5.9766000000000759</v>
+      </c>
+      <c r="W5" s="52">
+        <v>29.11</v>
+      </c>
+      <c r="X5" s="46">
+        <f t="shared" si="1"/>
+        <v>3.4007716753977241E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B6" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="47">
+        <v>0</v>
+      </c>
+      <c r="D6" s="47">
+        <v>168</v>
+      </c>
+      <c r="E6" s="47">
+        <v>140</v>
+      </c>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48">
+        <v>129.49417</v>
+      </c>
+      <c r="H6" s="48">
+        <v>129.6335</v>
+      </c>
+      <c r="I6" s="51">
+        <f>+G6*D6</f>
+        <v>21755.020560000001</v>
+      </c>
+      <c r="J6" s="51">
+        <f>+E6*H6</f>
+        <v>18148.689999999999</v>
+      </c>
+      <c r="K6" s="52">
+        <f t="shared" si="0"/>
+        <v>0.13933000000000106</v>
+      </c>
+      <c r="L6" s="46">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="M6" s="52">
+        <f t="shared" si="3"/>
+        <v>19.506200000000149</v>
+      </c>
+      <c r="N6" s="51">
+        <f t="shared" ref="N6:N64" si="5">+D6-E6</f>
+        <v>28</v>
+      </c>
+      <c r="O6" s="52">
+        <f>IF(D6&gt;E6,G6,H6)</f>
+        <v>129.49417</v>
+      </c>
+      <c r="P6" s="50">
+        <f t="shared" si="4"/>
+        <v>3625.8367600000001</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>130.11000000000001</v>
+      </c>
+      <c r="R6" s="52">
+        <f>(Q6-O6)*N6</f>
+        <v>17.243240000000469</v>
+      </c>
+      <c r="W6" s="52">
+        <v>14.59</v>
+      </c>
+      <c r="X6" s="46">
+        <f t="shared" si="1"/>
+        <v>3.6563015807921398E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B7" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C7" s="47">
+        <v>0</v>
+      </c>
+      <c r="D7" s="47">
+        <v>155</v>
+      </c>
+      <c r="E7" s="47">
+        <v>180</v>
+      </c>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48">
+        <v>290.63065</v>
+      </c>
+      <c r="H7" s="48">
+        <v>290.59638999999999</v>
+      </c>
+      <c r="I7" s="51">
+        <f>+G7*D7</f>
+        <v>45047.750749999999</v>
+      </c>
+      <c r="J7" s="51">
+        <f>+E7*H7</f>
+        <v>52307.350200000001</v>
+      </c>
+      <c r="K7" s="52">
+        <f t="shared" si="0"/>
+        <v>-3.4260000000017499E-2</v>
+      </c>
+      <c r="L7" s="46">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="M7" s="52">
+        <f t="shared" si="3"/>
+        <v>-5.3103000000027123</v>
+      </c>
+      <c r="N7" s="51">
+        <f t="shared" si="5"/>
+        <v>-25</v>
+      </c>
+      <c r="O7" s="52">
+        <f t="shared" ref="O7:O64" si="6">IF(D7&gt;E7,G7,H7)</f>
+        <v>290.59638999999999</v>
+      </c>
+      <c r="P7" s="50">
+        <f t="shared" si="4"/>
+        <v>-7264.9097499999998</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>287.5</v>
+      </c>
+      <c r="R7" s="52">
+        <f>(Q7-O7)*N7</f>
+        <v>77.409749999999633</v>
+      </c>
+      <c r="W7" s="52">
+        <v>23.22</v>
+      </c>
+      <c r="X7" s="46">
+        <f t="shared" si="1"/>
+        <v>2.3850830386304479E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B8" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="47">
+        <v>15</v>
+      </c>
+      <c r="D8" s="47">
+        <v>69</v>
+      </c>
+      <c r="E8" s="47">
+        <v>39</v>
+      </c>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48">
+        <v>353.40825999999998</v>
+      </c>
+      <c r="H8" s="48">
+        <v>353.80923000000001</v>
+      </c>
+      <c r="I8" s="51">
+        <f>+G8*D8</f>
+        <v>24385.16994</v>
+      </c>
+      <c r="J8" s="51">
+        <f>+E8*H8</f>
+        <v>13798.55997</v>
+      </c>
+      <c r="K8" s="52">
+        <f t="shared" si="0"/>
+        <v>0.40097000000002936</v>
+      </c>
+      <c r="L8" s="46">
+        <f t="shared" si="2"/>
+        <v>39</v>
+      </c>
+      <c r="M8" s="52">
+        <f t="shared" si="3"/>
+        <v>15.637830000001145</v>
+      </c>
+      <c r="N8" s="51">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="O8" s="52">
+        <f t="shared" si="6"/>
+        <v>353.40825999999998</v>
+      </c>
+      <c r="P8" s="50">
+        <f t="shared" si="4"/>
+        <v>10602.247799999999</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>353.93</v>
+      </c>
+      <c r="R8" s="52">
+        <f>(Q8-O8)*N8</f>
+        <v>15.652200000000676</v>
+      </c>
+      <c r="W8" s="52">
+        <v>12.8</v>
+      </c>
+      <c r="X8" s="46">
+        <f t="shared" si="1"/>
+        <v>3.3522131101832949E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B9" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="C9" s="47">
+        <v>16</v>
+      </c>
+      <c r="D9" s="47">
+        <v>112</v>
+      </c>
+      <c r="E9" s="47">
+        <v>96</v>
+      </c>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48">
+        <v>279.05642999999998</v>
+      </c>
+      <c r="H9" s="48">
+        <v>278.28250000000003</v>
+      </c>
+      <c r="I9" s="51">
+        <f>+G9*D9</f>
+        <v>31254.320159999996</v>
+      </c>
+      <c r="J9" s="51">
+        <f>+E9*H9</f>
+        <v>26715.120000000003</v>
+      </c>
+      <c r="K9" s="52">
+        <f t="shared" si="0"/>
+        <v>-0.77392999999995027</v>
+      </c>
+      <c r="L9" s="46">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="M9" s="52">
+        <f t="shared" si="3"/>
+        <v>-74.297279999995226</v>
+      </c>
+      <c r="N9" s="51">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O9" s="52">
+        <f t="shared" si="6"/>
+        <v>279.05642999999998</v>
+      </c>
+      <c r="P9" s="50">
+        <f t="shared" si="4"/>
+        <v>4464.9028799999996</v>
+      </c>
+      <c r="Q9" s="52">
+        <v>277.89999999999998</v>
+      </c>
+      <c r="R9" s="52">
+        <f>(Q9-O9)*N9</f>
+        <v>-18.502880000000005</v>
+      </c>
+      <c r="W9" s="52">
+        <v>18.579999999999998</v>
+      </c>
+      <c r="X9" s="46">
+        <f t="shared" si="1"/>
+        <v>3.2051370426759007E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B10" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="47">
+        <v>35</v>
+      </c>
+      <c r="D10" s="47">
+        <v>165</v>
+      </c>
+      <c r="E10" s="47">
+        <v>115</v>
+      </c>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48">
+        <v>182.60544999999999</v>
+      </c>
+      <c r="H10" s="48">
+        <v>183.02609000000001</v>
+      </c>
+      <c r="I10" s="51">
+        <f>+G10*D10</f>
+        <v>30129.899249999999</v>
+      </c>
+      <c r="J10" s="51">
+        <f>+E10*H10</f>
+        <v>21048.000350000002</v>
+      </c>
+      <c r="K10" s="52">
+        <f t="shared" si="0"/>
+        <v>0.42064000000002011</v>
+      </c>
+      <c r="L10" s="46">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="M10" s="52">
+        <f t="shared" si="3"/>
+        <v>48.373600000002313</v>
+      </c>
+      <c r="N10" s="51">
+        <f t="shared" si="5"/>
+        <v>50</v>
+      </c>
+      <c r="O10" s="52">
+        <f t="shared" si="6"/>
+        <v>182.60544999999999</v>
+      </c>
+      <c r="P10" s="50">
+        <f t="shared" si="4"/>
+        <v>9130.2724999999991</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>180.45</v>
+      </c>
+      <c r="R10" s="52">
+        <f>(Q10-O10)*N10</f>
+        <v>-107.77250000000009</v>
+      </c>
+      <c r="W10" s="52">
+        <v>19.7</v>
+      </c>
+      <c r="X10" s="46">
+        <f t="shared" si="1"/>
+        <v>3.8493178020146802E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B11" s="46" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="47">
+        <v>0</v>
+      </c>
+      <c r="D11" s="47">
+        <v>52</v>
+      </c>
+      <c r="E11" s="47">
+        <v>59</v>
+      </c>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48">
+        <v>660.66980999999998</v>
+      </c>
+      <c r="H11" s="48">
+        <v>660.86746000000005</v>
+      </c>
+      <c r="I11" s="51">
+        <f>+G11*D11</f>
+        <v>34354.830119999999</v>
+      </c>
+      <c r="J11" s="51">
+        <f>+E11*H11</f>
+        <v>38991.180140000004</v>
+      </c>
+      <c r="K11" s="52">
+        <f t="shared" si="0"/>
+        <v>0.19765000000006694</v>
+      </c>
+      <c r="L11" s="46">
+        <f t="shared" si="2"/>
+        <v>52</v>
+      </c>
+      <c r="M11" s="52">
+        <f t="shared" si="3"/>
+        <v>10.277800000003481</v>
+      </c>
+      <c r="N11" s="51">
+        <f t="shared" si="5"/>
+        <v>-7</v>
+      </c>
+      <c r="O11" s="52">
+        <f t="shared" si="6"/>
+        <v>660.86746000000005</v>
+      </c>
+      <c r="P11" s="50">
+        <f t="shared" si="4"/>
+        <v>-4626.07222</v>
+      </c>
+      <c r="Q11" s="52">
+        <v>660.2</v>
+      </c>
+      <c r="R11" s="52">
+        <f>(Q11-O11)*N11</f>
+        <v>4.6722200000000385</v>
+      </c>
+      <c r="W11" s="52">
+        <v>38.03</v>
+      </c>
+      <c r="X11" s="46">
+        <f t="shared" si="1"/>
+        <v>5.1850127723634411E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B12" s="46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="47">
+        <v>0</v>
+      </c>
+      <c r="D12" s="47">
+        <v>145</v>
+      </c>
+      <c r="E12" s="47">
+        <v>160</v>
+      </c>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48">
+        <v>178.93690000000001</v>
+      </c>
+      <c r="H12" s="48">
+        <v>178.68906000000001</v>
+      </c>
+      <c r="I12" s="51">
+        <f>+G12*D12</f>
+        <v>25945.8505</v>
+      </c>
+      <c r="J12" s="51">
+        <f>+E12*H12</f>
+        <v>28590.249600000003</v>
+      </c>
+      <c r="K12" s="52">
+        <f t="shared" si="0"/>
+        <v>-0.24783999999999651</v>
+      </c>
+      <c r="L12" s="46">
+        <f t="shared" si="2"/>
+        <v>145</v>
+      </c>
+      <c r="M12" s="52">
+        <f t="shared" si="3"/>
+        <v>-35.936799999999494</v>
+      </c>
+      <c r="N12" s="51">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="O12" s="52">
+        <f t="shared" si="6"/>
+        <v>178.68906000000001</v>
+      </c>
+      <c r="P12" s="50">
+        <f t="shared" si="4"/>
+        <v>-2680.3359</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>176</v>
+      </c>
+      <c r="R12" s="52">
+        <f>(Q12-O12)*N12</f>
+        <v>40.33590000000018</v>
+      </c>
+      <c r="W12" s="52">
+        <v>19.87</v>
+      </c>
+      <c r="X12" s="46">
+        <f t="shared" si="1"/>
+        <v>3.6434581797314838E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B13" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13" s="47">
+        <v>20</v>
+      </c>
+      <c r="D13" s="47">
+        <v>172</v>
+      </c>
+      <c r="E13" s="47">
+        <v>132</v>
+      </c>
+      <c r="F13" s="47"/>
+      <c r="G13" s="48">
+        <v>263.40093000000002</v>
+      </c>
+      <c r="H13" s="48">
+        <v>263.83273000000003</v>
+      </c>
+      <c r="I13" s="51">
+        <f>+G13*D13</f>
+        <v>45304.95996</v>
+      </c>
+      <c r="J13" s="51">
+        <f>+E13*H13</f>
+        <v>34825.920360000004</v>
+      </c>
+      <c r="K13" s="52">
+        <f t="shared" si="0"/>
+        <v>0.43180000000000973</v>
+      </c>
+      <c r="L13" s="46">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="M13" s="52">
+        <f t="shared" si="3"/>
+        <v>56.997600000001285</v>
+      </c>
+      <c r="N13" s="51">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="O13" s="52">
+        <f t="shared" si="6"/>
+        <v>263.40093000000002</v>
+      </c>
+      <c r="P13" s="50">
+        <f t="shared" si="4"/>
+        <v>10536.037200000001</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>260.14999999999998</v>
+      </c>
+      <c r="R13" s="52">
+        <f>(Q13-O13)*N13</f>
+        <v>-130.03720000000158</v>
+      </c>
+      <c r="W13" s="52">
+        <v>27.31</v>
+      </c>
+      <c r="X13" s="46">
+        <f t="shared" si="1"/>
+        <v>3.4081742133542557E-4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B14" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C14" s="47">
+        <v>0</v>
+      </c>
+      <c r="D14" s="47">
+        <v>375</v>
+      </c>
+      <c r="E14" s="47">
+        <v>465</v>
+      </c>
+      <c r="F14" s="47"/>
+      <c r="G14" s="48">
+        <v>68.695400000000006</v>
+      </c>
+      <c r="H14" s="48">
+        <v>68.735479999999995</v>
+      </c>
+      <c r="I14" s="51">
+        <f>+G14*D14</f>
+        <v>25760.775000000001</v>
+      </c>
+      <c r="J14" s="51">
+        <f>+E14*H14</f>
+        <v>31961.998199999998</v>
+      </c>
+      <c r="K14" s="52">
+        <f>+H14-G14</f>
+        <v>4.0079999999989013E-2</v>
+      </c>
+      <c r="L14" s="46">
+        <f t="shared" si="2"/>
+        <v>375</v>
+      </c>
+      <c r="M14" s="52">
+        <f t="shared" si="3"/>
+        <v>15.02999999999588</v>
+      </c>
+      <c r="N14" s="51">
+        <f t="shared" si="5"/>
+        <v>-90</v>
+      </c>
+      <c r="O14" s="52">
+        <f t="shared" si="6"/>
+        <v>68.735479999999995</v>
+      </c>
+      <c r="P14" s="50">
+        <f t="shared" si="4"/>
+        <v>-6186.1931999999997</v>
+      </c>
+      <c r="Q14" s="52">
+        <v>68.510000000000005</v>
+      </c>
+      <c r="R14" s="52">
+        <f>(Q14-O14)*N14</f>
+        <v>20.293199999999132</v>
+      </c>
+      <c r="W14" s="52">
+        <v>18.440000000000001</v>
+      </c>
+      <c r="X14" s="46">
+        <f>+W14/(J14+I14)</f>
+        <v>3.19457970879334E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B15" s="46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="47">
+        <v>56</v>
+      </c>
+      <c r="D15" s="47">
+        <v>252</v>
+      </c>
+      <c r="E15" s="47">
+        <v>161</v>
+      </c>
+      <c r="F15" s="47"/>
+      <c r="G15" s="48">
+        <v>119.61472000000001</v>
+      </c>
+      <c r="H15" s="48">
+        <v>119.96348</v>
+      </c>
+      <c r="I15" s="51">
+        <f>+G15*D15</f>
+        <v>30142.909440000003</v>
+      </c>
+      <c r="J15" s="51">
+        <f>+E15*H15</f>
+        <v>19314.120279999999</v>
+      </c>
+      <c r="K15" s="52">
+        <f t="shared" ref="K15:K64" si="7">+H15-G15</f>
+        <v>0.34875999999999863</v>
+      </c>
+      <c r="L15" s="46">
+        <f t="shared" si="2"/>
+        <v>161</v>
+      </c>
+      <c r="M15" s="52">
+        <f t="shared" si="3"/>
+        <v>56.150359999999779</v>
+      </c>
+      <c r="N15" s="51">
+        <f t="shared" si="5"/>
+        <v>91</v>
+      </c>
+      <c r="O15" s="52">
+        <f t="shared" si="6"/>
+        <v>119.61472000000001</v>
+      </c>
+      <c r="P15" s="50">
+        <f t="shared" si="4"/>
+        <v>10884.93952</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>119.13</v>
+      </c>
+      <c r="R15" s="52">
+        <f>(Q15-O15)*N15</f>
+        <v>-44.109520000000913</v>
+      </c>
+      <c r="W15" s="52">
+        <v>20.83</v>
+      </c>
+      <c r="X15" s="46">
+        <f>+W15/(J15+I15)</f>
+        <v>4.2117369599283726E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+      <c r="B16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="47">
+        <v>0</v>
+      </c>
+      <c r="D16" s="47">
+        <v>400</v>
+      </c>
+      <c r="E16" s="47">
+        <v>500</v>
+      </c>
+      <c r="F16" s="47"/>
+      <c r="G16" s="48">
+        <v>128.53291999999999</v>
+      </c>
+      <c r="H16" s="48">
+        <v>129.16735</v>
+      </c>
+      <c r="I16" s="51">
+        <f>+G16*D16</f>
+        <v>51413.167999999998</v>
+      </c>
+      <c r="J16" s="51">
+        <f>+E16*H16</f>
+        <v>64583.675000000003</v>
+      </c>
+      <c r="K16" s="52">
+        <f t="shared" si="7"/>
+        <v>0.63443000000000893</v>
+      </c>
+      <c r="L16" s="46">
+        <f t="shared" si="2"/>
+        <v>400</v>
+      </c>
+      <c r="M16" s="52">
+        <f t="shared" si="3"/>
+        <v>253.77200000000357</v>
+      </c>
+      <c r="N16" s="51">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="O16" s="52">
+        <f t="shared" si="6"/>
+        <v>129.16735</v>
+      </c>
+      <c r="P16" s="50">
+        <f t="shared" si="4"/>
+        <v>-12916.735000000001</v>
+      </c>
+      <c r="Q16" s="52">
+        <v>126.49</v>
+      </c>
+      <c r="R16" s="52">
+        <f>(Q16-O16)*N16</f>
+        <v>267.73500000000041</v>
+      </c>
+      <c r="W16" s="52">
+        <v>33.93</v>
+      </c>
+      <c r="X16" s="46">
+        <f>+W16/(J16+I16)</f>
+        <v>2.9250796075544922E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B17" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C17" s="47">
+        <v>0</v>
+      </c>
+      <c r="D17" s="47">
+        <v>35</v>
+      </c>
+      <c r="E17" s="47">
+        <v>45</v>
+      </c>
+      <c r="F17" s="47"/>
+      <c r="G17" s="48">
+        <v>976.51113999999995</v>
+      </c>
+      <c r="H17" s="48">
+        <v>977.80667000000005</v>
+      </c>
+      <c r="I17" s="51">
+        <f>+G17*D17</f>
+        <v>34177.889900000002</v>
+      </c>
+      <c r="J17" s="51">
+        <f>+E17*H17</f>
+        <v>44001.300150000003</v>
+      </c>
+      <c r="K17" s="52">
+        <f t="shared" si="7"/>
+        <v>1.2955300000000989</v>
+      </c>
+      <c r="L17" s="46">
+        <f t="shared" si="2"/>
+        <v>35</v>
+      </c>
+      <c r="M17" s="52">
+        <f t="shared" si="3"/>
+        <v>45.343550000003461</v>
+      </c>
+      <c r="N17" s="51">
+        <f t="shared" si="5"/>
+        <v>-10</v>
+      </c>
+      <c r="O17" s="52">
+        <f t="shared" si="6"/>
+        <v>977.80667000000005</v>
+      </c>
+      <c r="P17" s="50">
+        <f t="shared" si="4"/>
+        <v>-9778.0667000000012</v>
+      </c>
+      <c r="Q17" s="52">
+        <v>976</v>
+      </c>
+      <c r="R17" s="52">
+        <f>(Q17-O17)*N17</f>
+        <v>18.066700000000537</v>
+      </c>
+      <c r="W17" s="52">
+        <v>27</v>
+      </c>
+      <c r="X17" s="46">
+        <f>+W17/(J17+I17)</f>
+        <v>3.4536044672158888E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B18" s="46" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18" s="47">
+        <v>20</v>
+      </c>
+      <c r="D18" s="47">
+        <v>225</v>
+      </c>
+      <c r="E18" s="47">
+        <v>185</v>
+      </c>
+      <c r="F18" s="47"/>
+      <c r="G18" s="48">
+        <v>252.148</v>
+      </c>
+      <c r="H18" s="48">
+        <v>252.28595000000001</v>
+      </c>
+      <c r="I18" s="51">
+        <f>+G18*D18</f>
+        <v>56733.299999999996</v>
+      </c>
+      <c r="J18" s="51">
+        <f>+E18*H18</f>
+        <v>46672.900750000001</v>
+      </c>
+      <c r="K18" s="52">
+        <f t="shared" si="7"/>
+        <v>0.13795000000001778</v>
+      </c>
+      <c r="L18" s="46">
+        <f t="shared" si="2"/>
+        <v>185</v>
+      </c>
+      <c r="M18" s="52">
+        <f t="shared" si="3"/>
+        <v>25.520750000003289</v>
+      </c>
+      <c r="N18" s="51">
+        <f t="shared" si="5"/>
+        <v>40</v>
+      </c>
+      <c r="O18" s="52">
+        <f t="shared" si="6"/>
+        <v>252.148</v>
+      </c>
+      <c r="P18" s="50">
+        <f t="shared" si="4"/>
+        <v>10085.92</v>
+      </c>
+      <c r="Q18" s="52">
+        <v>257.75</v>
+      </c>
+      <c r="R18" s="52">
+        <f>(Q18-O18)*N18</f>
+        <v>224.08000000000015</v>
+      </c>
+      <c r="W18" s="52">
+        <v>29.67</v>
+      </c>
+      <c r="X18" s="46">
+        <f>+W18/(J18+I18)</f>
+        <v>2.8692670057312789E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B19" s="46" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="47">
+        <v>0</v>
+      </c>
+      <c r="D19" s="47">
+        <v>440</v>
+      </c>
+      <c r="E19" s="47">
+        <v>540</v>
+      </c>
+      <c r="F19" s="47"/>
+      <c r="G19" s="48">
+        <v>56.20091</v>
+      </c>
+      <c r="H19" s="48">
+        <v>56.139389999999999</v>
+      </c>
+      <c r="I19" s="51">
+        <f>+G19*D19</f>
+        <v>24728.400399999999</v>
+      </c>
+      <c r="J19" s="51">
+        <f>+E19*H19</f>
+        <v>30315.2706</v>
+      </c>
+      <c r="K19" s="52">
+        <f t="shared" si="7"/>
+        <v>-6.1520000000001573E-2</v>
+      </c>
+      <c r="L19" s="46">
+        <f t="shared" si="2"/>
+        <v>440</v>
+      </c>
+      <c r="M19" s="52">
+        <f t="shared" si="3"/>
+        <v>-27.068800000000692</v>
+      </c>
+      <c r="N19" s="51">
+        <f t="shared" si="5"/>
+        <v>-100</v>
+      </c>
+      <c r="O19" s="52">
+        <f t="shared" si="6"/>
+        <v>56.139389999999999</v>
+      </c>
+      <c r="P19" s="50">
+        <f t="shared" si="4"/>
+        <v>-5613.9390000000003</v>
+      </c>
+      <c r="Q19" s="52">
+        <v>55.45</v>
+      </c>
+      <c r="R19" s="52">
+        <f>(Q19-O19)*N19</f>
+        <v>68.938999999999595</v>
+      </c>
+      <c r="W19" s="52">
+        <v>15.09</v>
+      </c>
+      <c r="X19" s="46">
+        <f>+W19/(J19+I19)</f>
+        <v>2.7414595948733144E-4</v>
+      </c>
+    </row>
+    <row r="20" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B20" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C20" s="47">
+        <v>90</v>
+      </c>
+      <c r="D20" s="47">
+        <v>390</v>
+      </c>
+      <c r="E20" s="47">
+        <v>300</v>
+      </c>
+      <c r="F20" s="47"/>
+      <c r="G20" s="48">
+        <v>87.594620000000006</v>
+      </c>
+      <c r="H20" s="48">
+        <v>87.767499999999998</v>
+      </c>
+      <c r="I20" s="51">
+        <f>+G20*D20</f>
+        <v>34161.9018</v>
+      </c>
+      <c r="J20" s="51">
+        <f>+E20*H20</f>
+        <v>26330.25</v>
+      </c>
+      <c r="K20" s="52">
+        <f t="shared" si="7"/>
+        <v>0.17287999999999215</v>
+      </c>
+      <c r="L20" s="46">
+        <f t="shared" si="2"/>
+        <v>300</v>
+      </c>
+      <c r="M20" s="52">
+        <f t="shared" si="3"/>
+        <v>51.863999999997645</v>
+      </c>
+      <c r="N20" s="51">
+        <f t="shared" si="5"/>
+        <v>90</v>
+      </c>
+      <c r="O20" s="52">
+        <f t="shared" si="6"/>
+        <v>87.594620000000006</v>
+      </c>
+      <c r="P20" s="50">
+        <f t="shared" si="4"/>
+        <v>7883.5158000000001</v>
+      </c>
+      <c r="Q20" s="52">
+        <v>87.26</v>
+      </c>
+      <c r="R20" s="52">
+        <f>(Q20-O20)*N20</f>
+        <v>-30.115800000000092</v>
+      </c>
+      <c r="W20" s="52">
+        <v>16.22</v>
+      </c>
+      <c r="X20" s="46">
+        <f t="shared" ref="X20:X64" si="8">+W20/(J20+I20)</f>
+        <v>2.6813395651103286E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B21" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="47">
+        <v>0</v>
+      </c>
+      <c r="D21" s="47">
+        <v>258</v>
+      </c>
+      <c r="E21" s="47">
+        <v>270</v>
+      </c>
+      <c r="F21" s="47"/>
+      <c r="G21" s="48">
+        <v>194.35372000000001</v>
+      </c>
+      <c r="H21" s="48">
+        <v>194.56711000000001</v>
+      </c>
+      <c r="I21" s="51">
+        <f>+G21*D21</f>
+        <v>50143.259760000001</v>
+      </c>
+      <c r="J21" s="51">
+        <f>+E21*H21</f>
+        <v>52533.119700000003</v>
+      </c>
+      <c r="K21" s="52">
+        <f t="shared" si="7"/>
+        <v>0.21339000000000397</v>
+      </c>
+      <c r="L21" s="46">
+        <f t="shared" si="2"/>
+        <v>258</v>
+      </c>
+      <c r="M21" s="52">
+        <f t="shared" si="3"/>
+        <v>55.054620000001023</v>
+      </c>
+      <c r="N21" s="51">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="O21" s="52">
+        <f t="shared" si="6"/>
+        <v>194.56711000000001</v>
+      </c>
+      <c r="P21" s="50">
+        <f t="shared" si="4"/>
+        <v>-2334.8053200000004</v>
+      </c>
+      <c r="Q21" s="52">
+        <v>192.87</v>
+      </c>
+      <c r="R21" s="52">
+        <f>(Q21-O21)*N21</f>
+        <v>20.365320000000111</v>
+      </c>
+      <c r="W21" s="52">
+        <v>30.53</v>
+      </c>
+      <c r="X21" s="46">
+        <f t="shared" si="8"/>
+        <v>2.9734199979162374E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B22" s="46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" s="47">
+        <v>5</v>
+      </c>
+      <c r="D22" s="47">
+        <v>195</v>
+      </c>
+      <c r="E22" s="47">
+        <v>165</v>
+      </c>
+      <c r="F22" s="47"/>
+      <c r="G22" s="48">
+        <v>155.56308000000001</v>
+      </c>
+      <c r="H22" s="48">
+        <v>155.72696999999999</v>
+      </c>
+      <c r="I22" s="51">
+        <f>+G22*D22</f>
+        <v>30334.800600000002</v>
+      </c>
+      <c r="J22" s="51">
+        <f>+E22*H22</f>
+        <v>25694.950049999999</v>
+      </c>
+      <c r="K22" s="52">
+        <f t="shared" si="7"/>
+        <v>0.16388999999998077</v>
+      </c>
+      <c r="L22" s="46">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="M22" s="52">
+        <f t="shared" si="3"/>
+        <v>27.041849999996828</v>
+      </c>
+      <c r="N22" s="51">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="O22" s="52">
+        <f t="shared" si="6"/>
+        <v>155.56308000000001</v>
+      </c>
+      <c r="P22" s="50">
+        <f t="shared" si="4"/>
+        <v>4666.8924000000006</v>
+      </c>
+      <c r="Q22" s="52">
+        <v>155.94</v>
+      </c>
+      <c r="R22" s="52">
+        <f>(Q22-O22)*N22</f>
+        <v>11.307599999999525</v>
+      </c>
+      <c r="W22" s="52">
+        <v>25.29</v>
+      </c>
+      <c r="X22" s="46">
+        <f t="shared" si="8"/>
+        <v>4.5136734871405317E-4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B23" s="46" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="47">
+        <v>8</v>
+      </c>
+      <c r="D23" s="47">
+        <v>46</v>
+      </c>
+      <c r="E23" s="47">
+        <v>38</v>
+      </c>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48">
+        <v>532.93087000000003</v>
+      </c>
+      <c r="H23" s="48">
+        <v>533.30632000000003</v>
+      </c>
+      <c r="I23" s="51">
+        <f>+G23*D23</f>
+        <v>24514.820020000003</v>
+      </c>
+      <c r="J23" s="51">
+        <f>+E23*H23</f>
+        <v>20265.640160000003</v>
+      </c>
+      <c r="K23" s="52">
+        <f t="shared" si="7"/>
+        <v>0.37545000000000073</v>
+      </c>
+      <c r="L23" s="46">
+        <f t="shared" si="2"/>
+        <v>38</v>
+      </c>
+      <c r="M23" s="52">
+        <f t="shared" si="3"/>
+        <v>14.267100000000028</v>
+      </c>
+      <c r="N23" s="51">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="O23" s="52">
+        <f t="shared" si="6"/>
+        <v>532.93087000000003</v>
+      </c>
+      <c r="P23" s="50">
+        <f t="shared" si="4"/>
+        <v>4263.4469600000002</v>
+      </c>
+      <c r="Q23" s="52">
+        <v>528.45000000000005</v>
+      </c>
+      <c r="R23" s="52">
+        <f>(Q23-O23)*N23</f>
+        <v>-35.846959999999854</v>
+      </c>
+      <c r="W23" s="52">
+        <v>15.2</v>
+      </c>
+      <c r="X23" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3943376059339094E-4</v>
+      </c>
+    </row>
+    <row r="24" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B24" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="47">
+        <v>0</v>
+      </c>
+      <c r="D24" s="47">
+        <v>96</v>
+      </c>
+      <c r="E24" s="47">
+        <v>111</v>
+      </c>
+      <c r="F24" s="47"/>
+      <c r="G24" s="48">
+        <v>358.18718999999999</v>
+      </c>
+      <c r="H24" s="48">
+        <v>358.20540999999997</v>
+      </c>
+      <c r="I24" s="51">
+        <f>+G24*D24</f>
+        <v>34385.970239999995</v>
+      </c>
+      <c r="J24" s="51">
+        <f>+E24*H24</f>
+        <v>39760.800509999994</v>
+      </c>
+      <c r="K24" s="52">
+        <f t="shared" si="7"/>
+        <v>1.8219999999985248E-2</v>
+      </c>
+      <c r="L24" s="46">
+        <f t="shared" si="2"/>
+        <v>96</v>
+      </c>
+      <c r="M24" s="52">
+        <f t="shared" si="3"/>
+        <v>1.7491199999985838</v>
+      </c>
+      <c r="N24" s="51">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="O24" s="52">
+        <f t="shared" si="6"/>
+        <v>358.20540999999997</v>
+      </c>
+      <c r="P24" s="50">
+        <f t="shared" si="4"/>
+        <v>-5373.08115</v>
+      </c>
+      <c r="Q24" s="52">
+        <v>356.1</v>
+      </c>
+      <c r="R24" s="52">
+        <f>(Q24-O24)*N24</f>
+        <v>31.581149999999241</v>
+      </c>
+      <c r="W24" s="52">
+        <v>25.09</v>
+      </c>
+      <c r="X24" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3838290927862155E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B25" s="46" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" s="47">
+        <v>15</v>
+      </c>
+      <c r="D25" s="47">
+        <v>190</v>
+      </c>
+      <c r="E25" s="47">
+        <v>155</v>
+      </c>
+      <c r="F25" s="47"/>
+      <c r="G25" s="48">
+        <v>245.55805000000001</v>
+      </c>
+      <c r="H25" s="48">
+        <v>245.52968000000001</v>
+      </c>
+      <c r="I25" s="51">
+        <f>+G25*D25</f>
+        <v>46656.029500000004</v>
+      </c>
+      <c r="J25" s="51">
+        <f>+E25*H25</f>
+        <v>38057.100400000003</v>
+      </c>
+      <c r="K25" s="52">
+        <f t="shared" si="7"/>
+        <v>-2.8369999999995343E-2</v>
+      </c>
+      <c r="L25" s="46">
+        <f t="shared" si="2"/>
+        <v>155</v>
+      </c>
+      <c r="M25" s="52">
+        <f t="shared" si="3"/>
+        <v>-4.3973499999992782</v>
+      </c>
+      <c r="N25" s="51">
+        <f t="shared" si="5"/>
+        <v>35</v>
+      </c>
+      <c r="O25" s="52">
+        <f t="shared" si="6"/>
+        <v>245.55805000000001</v>
+      </c>
+      <c r="P25" s="50">
+        <f t="shared" si="4"/>
+        <v>8594.5317500000001</v>
+      </c>
+      <c r="Q25" s="52">
+        <v>229.6</v>
+      </c>
+      <c r="R25" s="52">
+        <f>(Q25-O25)*N25</f>
+        <v>-558.53175000000056</v>
+      </c>
+      <c r="W25" s="52">
+        <v>25.27</v>
+      </c>
+      <c r="X25" s="46">
+        <f t="shared" si="8"/>
+        <v>2.9830086587321334E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B26" s="46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="47">
+        <v>10</v>
+      </c>
+      <c r="D26" s="47">
+        <v>60</v>
+      </c>
+      <c r="E26" s="47">
+        <v>50</v>
+      </c>
+      <c r="F26" s="47"/>
+      <c r="G26" s="48">
+        <v>599.95899999999995</v>
+      </c>
+      <c r="H26" s="48">
+        <v>598.93700000000001</v>
+      </c>
+      <c r="I26" s="51">
+        <f>+G26*D26</f>
+        <v>35997.539999999994</v>
+      </c>
+      <c r="J26" s="51">
+        <f>+E26*H26</f>
+        <v>29946.850000000002</v>
+      </c>
+      <c r="K26" s="52">
+        <f t="shared" si="7"/>
+        <v>-1.0219999999999345</v>
+      </c>
+      <c r="L26" s="46">
+        <f t="shared" si="2"/>
+        <v>50</v>
+      </c>
+      <c r="M26" s="52">
+        <f t="shared" si="3"/>
+        <v>-51.099999999996726</v>
+      </c>
+      <c r="N26" s="51">
+        <f t="shared" si="5"/>
+        <v>10</v>
+      </c>
+      <c r="O26" s="52">
+        <f t="shared" si="6"/>
+        <v>599.95899999999995</v>
+      </c>
+      <c r="P26" s="50">
+        <f t="shared" si="4"/>
+        <v>5999.5899999999992</v>
+      </c>
+      <c r="Q26" s="52">
+        <v>596.04999999999995</v>
+      </c>
+      <c r="R26" s="52">
+        <f>(Q26-O26)*N26</f>
+        <v>-39.089999999999918</v>
+      </c>
+      <c r="W26" s="52">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="X26" s="46">
+        <f t="shared" si="8"/>
+        <v>3.0176941510869993E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B27" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="47">
+        <v>4</v>
+      </c>
+      <c r="D27" s="47">
+        <v>96</v>
+      </c>
+      <c r="E27" s="47">
+        <v>82</v>
+      </c>
+      <c r="F27" s="47"/>
+      <c r="G27" s="48">
+        <v>494.64188000000001</v>
+      </c>
+      <c r="H27" s="48">
+        <v>495.09537</v>
+      </c>
+      <c r="I27" s="51">
+        <f>+G27*D27</f>
+        <v>47485.620479999998</v>
+      </c>
+      <c r="J27" s="51">
+        <f>+E27*H27</f>
+        <v>40597.820339999998</v>
+      </c>
+      <c r="K27" s="52">
+        <f t="shared" si="7"/>
+        <v>0.45348999999998796</v>
+      </c>
+      <c r="L27" s="46">
+        <f t="shared" si="2"/>
+        <v>82</v>
+      </c>
+      <c r="M27" s="52">
+        <f t="shared" si="3"/>
+        <v>37.186179999999013</v>
+      </c>
+      <c r="N27" s="51">
+        <f t="shared" si="5"/>
+        <v>14</v>
+      </c>
+      <c r="O27" s="52">
+        <f t="shared" si="6"/>
+        <v>494.64188000000001</v>
+      </c>
+      <c r="P27" s="50">
+        <f t="shared" si="4"/>
+        <v>6924.98632</v>
+      </c>
+      <c r="Q27" s="52">
+        <v>487.93</v>
+      </c>
+      <c r="R27" s="52">
+        <f>(Q27-O27)*N27</f>
+        <v>-93.96632000000011</v>
+      </c>
+      <c r="W27" s="52">
+        <v>31.98</v>
+      </c>
+      <c r="X27" s="46">
+        <f t="shared" si="8"/>
+        <v>3.6306483604962338E-4</v>
+      </c>
+    </row>
+    <row r="28" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B28" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="47">
+        <v>35</v>
+      </c>
+      <c r="D28" s="47">
+        <v>70</v>
+      </c>
+      <c r="E28" s="47">
+        <v>49</v>
+      </c>
+      <c r="F28" s="47"/>
+      <c r="G28" s="48">
+        <v>155.232</v>
+      </c>
+      <c r="H28" s="48">
+        <v>155.78</v>
+      </c>
+      <c r="I28" s="51">
+        <f>+G28*D28</f>
+        <v>10866.24</v>
+      </c>
+      <c r="J28" s="51">
+        <f>+E28*H28</f>
+        <v>7633.22</v>
+      </c>
+      <c r="K28" s="52">
+        <f t="shared" si="7"/>
+        <v>0.54800000000000182</v>
+      </c>
+      <c r="L28" s="46">
+        <f t="shared" si="2"/>
+        <v>49</v>
+      </c>
+      <c r="M28" s="52">
+        <f t="shared" si="3"/>
+        <v>26.852000000000089</v>
+      </c>
+      <c r="N28" s="51">
+        <f t="shared" si="5"/>
+        <v>21</v>
+      </c>
+      <c r="O28" s="52">
+        <f t="shared" si="6"/>
+        <v>155.232</v>
+      </c>
+      <c r="P28" s="50">
+        <f t="shared" si="4"/>
+        <v>3259.8719999999998</v>
+      </c>
+      <c r="Q28" s="52">
+        <v>155</v>
+      </c>
+      <c r="R28" s="52">
+        <f>(Q28-O28)*N28</f>
+        <v>-4.8719999999999857</v>
+      </c>
+      <c r="W28" s="52">
+        <v>6.06</v>
+      </c>
+      <c r="X28" s="46">
+        <f t="shared" si="8"/>
+        <v>3.2757712927836813E-4</v>
+      </c>
+    </row>
+    <row r="29" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B29" s="46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="47">
+        <v>20</v>
+      </c>
+      <c r="D29" s="47">
+        <v>185</v>
+      </c>
+      <c r="E29" s="47">
+        <v>140</v>
+      </c>
+      <c r="F29" s="47"/>
+      <c r="G29" s="48">
+        <v>242.40919</v>
+      </c>
+      <c r="H29" s="48">
+        <v>242.96786</v>
+      </c>
+      <c r="I29" s="51">
+        <f>+G29*D29</f>
+        <v>44845.700149999997</v>
+      </c>
+      <c r="J29" s="51">
+        <f>+E29*H29</f>
+        <v>34015.500399999997</v>
+      </c>
+      <c r="K29" s="52">
+        <f t="shared" si="7"/>
+        <v>0.55867000000000644</v>
+      </c>
+      <c r="L29" s="46">
+        <f t="shared" si="2"/>
+        <v>140</v>
+      </c>
+      <c r="M29" s="52">
+        <f t="shared" si="3"/>
+        <v>78.213800000000901</v>
+      </c>
+      <c r="N29" s="51">
+        <f t="shared" si="5"/>
+        <v>45</v>
+      </c>
+      <c r="O29" s="52">
+        <f t="shared" si="6"/>
+        <v>242.40919</v>
+      </c>
+      <c r="P29" s="50">
+        <f t="shared" si="4"/>
+        <v>10908.413549999999</v>
+      </c>
+      <c r="Q29" s="52">
+        <v>240.9</v>
+      </c>
+      <c r="R29" s="52">
+        <f>(Q29-O29)*N29</f>
+        <v>-67.913549999999532</v>
+      </c>
+      <c r="W29" s="52">
+        <v>23.42</v>
+      </c>
+      <c r="X29" s="46">
+        <f t="shared" si="8"/>
+        <v>2.9697747227613066E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B30" s="46" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="47">
+        <v>-30</v>
+      </c>
+      <c r="D30" s="47">
+        <v>135</v>
+      </c>
+      <c r="E30" s="47">
+        <v>210</v>
+      </c>
+      <c r="F30" s="47"/>
+      <c r="G30" s="48">
+        <v>72.757779999999997</v>
+      </c>
+      <c r="H30" s="48">
+        <v>72.790000000000006</v>
+      </c>
+      <c r="I30" s="51">
+        <f>+G30*D30</f>
+        <v>9822.300299999999</v>
+      </c>
+      <c r="J30" s="51">
+        <f>+E30*H30</f>
+        <v>15285.900000000001</v>
+      </c>
+      <c r="K30" s="52">
+        <f t="shared" si="7"/>
+        <v>3.2220000000009463E-2</v>
+      </c>
+      <c r="L30" s="46">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="M30" s="52">
+        <f t="shared" si="3"/>
+        <v>4.3497000000012775</v>
+      </c>
+      <c r="N30" s="51">
+        <f t="shared" si="5"/>
+        <v>-75</v>
+      </c>
+      <c r="O30" s="52">
+        <f t="shared" si="6"/>
+        <v>72.790000000000006</v>
+      </c>
+      <c r="P30" s="50">
+        <f t="shared" si="4"/>
+        <v>-5459.2500000000009</v>
+      </c>
+      <c r="Q30" s="52">
+        <v>73.42</v>
+      </c>
+      <c r="R30" s="52">
+        <f>(Q30-O30)*N30</f>
+        <v>-47.249999999999659</v>
+      </c>
+      <c r="W30" s="52">
+        <v>8.32</v>
+      </c>
+      <c r="X30" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3136584464797344E-4</v>
+      </c>
+    </row>
+    <row r="31" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B31" s="46" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" s="47">
+        <v>-4</v>
+      </c>
+      <c r="D31" s="47">
+        <v>71</v>
+      </c>
+      <c r="E31" s="47">
+        <v>75</v>
+      </c>
+      <c r="F31" s="47"/>
+      <c r="G31" s="48">
+        <v>448.84113000000002</v>
+      </c>
+      <c r="H31" s="48">
+        <v>447.42759999999998</v>
+      </c>
+      <c r="I31" s="51">
+        <f>+G31*D31</f>
+        <v>31867.720230000003</v>
+      </c>
+      <c r="J31" s="51">
+        <f>+E31*H31</f>
+        <v>33557.07</v>
+      </c>
+      <c r="K31" s="52">
+        <f t="shared" si="7"/>
+        <v>-1.413530000000037</v>
+      </c>
+      <c r="L31" s="46">
+        <f t="shared" si="2"/>
+        <v>71</v>
+      </c>
+      <c r="M31" s="52">
+        <f t="shared" si="3"/>
+        <v>-100.36063000000263</v>
+      </c>
+      <c r="N31" s="51">
+        <f t="shared" si="5"/>
+        <v>-4</v>
+      </c>
+      <c r="O31" s="52">
+        <f t="shared" si="6"/>
+        <v>447.42759999999998</v>
+      </c>
+      <c r="P31" s="50">
+        <f t="shared" si="4"/>
+        <v>-1789.7103999999999</v>
+      </c>
+      <c r="Q31" s="52">
+        <v>447.54</v>
+      </c>
+      <c r="R31" s="52">
+        <f>(Q31-O31)*N31</f>
+        <v>-0.44960000000014588</v>
+      </c>
+      <c r="W31" s="52">
+        <v>17.84</v>
+      </c>
+      <c r="X31" s="46">
+        <f t="shared" si="8"/>
+        <v>2.7267951394698725E-4</v>
+      </c>
+    </row>
+    <row r="32" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B32" s="46" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="47">
+        <v>-3</v>
+      </c>
+      <c r="D32" s="47">
+        <v>53</v>
+      </c>
+      <c r="E32" s="47">
+        <v>51</v>
+      </c>
+      <c r="F32" s="47"/>
+      <c r="G32" s="48">
+        <v>826.91471999999999</v>
+      </c>
+      <c r="H32" s="48">
+        <v>827.11234999999999</v>
+      </c>
+      <c r="I32" s="51">
+        <f>+G32*D32</f>
+        <v>43826.480159999999</v>
+      </c>
+      <c r="J32" s="51">
+        <f>+E32*H32</f>
+        <v>42182.729849999996</v>
+      </c>
+      <c r="K32" s="52">
+        <f t="shared" si="7"/>
+        <v>0.19763000000000375</v>
+      </c>
+      <c r="L32" s="46">
+        <f t="shared" si="2"/>
+        <v>51</v>
+      </c>
+      <c r="M32" s="52">
+        <f t="shared" si="3"/>
+        <v>10.079130000000191</v>
+      </c>
+      <c r="N32" s="51">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="O32" s="52">
+        <f t="shared" si="6"/>
+        <v>826.91471999999999</v>
+      </c>
+      <c r="P32" s="50">
+        <f t="shared" si="4"/>
+        <v>1653.82944</v>
+      </c>
+      <c r="Q32" s="52">
+        <v>830</v>
+      </c>
+      <c r="R32" s="52">
+        <f>(Q32-O32)*N32</f>
+        <v>6.1705600000000231</v>
+      </c>
+      <c r="W32" s="52">
+        <v>37.51</v>
+      </c>
+      <c r="X32" s="46">
+        <f t="shared" si="8"/>
+        <v>4.3611608565685976E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B33" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C33" s="47">
+        <v>6</v>
+      </c>
+      <c r="D33" s="47">
+        <v>92</v>
+      </c>
+      <c r="E33" s="47">
+        <v>76</v>
+      </c>
+      <c r="F33" s="47"/>
+      <c r="G33" s="48">
+        <v>533.90674000000001</v>
+      </c>
+      <c r="H33" s="48">
+        <v>534.42947000000004</v>
+      </c>
+      <c r="I33" s="51">
+        <f>+G33*D33</f>
+        <v>49119.420080000004</v>
+      </c>
+      <c r="J33" s="51">
+        <f>+E33*H33</f>
+        <v>40616.639720000006</v>
+      </c>
+      <c r="K33" s="52">
+        <f t="shared" si="7"/>
+        <v>0.52273000000002412</v>
+      </c>
+      <c r="L33" s="46">
+        <f t="shared" si="2"/>
+        <v>76</v>
+      </c>
+      <c r="M33" s="52">
+        <f t="shared" si="3"/>
+        <v>39.727480000001833</v>
+      </c>
+      <c r="N33" s="51">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O33" s="52">
+        <f t="shared" si="6"/>
+        <v>533.90674000000001</v>
+      </c>
+      <c r="P33" s="50">
+        <f t="shared" si="4"/>
+        <v>8542.5078400000002</v>
+      </c>
+      <c r="Q33" s="52">
+        <v>530.01</v>
+      </c>
+      <c r="R33" s="52">
+        <f>(Q33-O33)*N33</f>
+        <v>-62.34784000000036</v>
+      </c>
+      <c r="W33" s="52">
+        <v>30.4</v>
+      </c>
+      <c r="X33" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3877128177629205E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B34" s="46" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="47">
+        <v>-18</v>
+      </c>
+      <c r="D34" s="47">
+        <v>72</v>
+      </c>
+      <c r="E34" s="47">
+        <v>102</v>
+      </c>
+      <c r="F34" s="47"/>
+      <c r="G34" s="48">
+        <v>317.96375</v>
+      </c>
+      <c r="H34" s="48">
+        <v>317.91293999999999</v>
+      </c>
+      <c r="I34" s="51">
+        <f>+G34*D34</f>
+        <v>22893.39</v>
+      </c>
+      <c r="J34" s="51">
+        <f>+E34*H34</f>
+        <v>32427.119879999998</v>
+      </c>
+      <c r="K34" s="52">
+        <f t="shared" si="7"/>
+        <v>-5.0810000000012678E-2</v>
+      </c>
+      <c r="L34" s="46">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M34" s="52">
+        <f t="shared" si="3"/>
+        <v>-3.6583200000009128</v>
+      </c>
+      <c r="N34" s="51">
+        <f t="shared" si="5"/>
+        <v>-30</v>
+      </c>
+      <c r="O34" s="52">
+        <f t="shared" si="6"/>
+        <v>317.91293999999999</v>
+      </c>
+      <c r="P34" s="50">
+        <f t="shared" si="4"/>
+        <v>-9537.3881999999994</v>
+      </c>
+      <c r="Q34" s="52">
+        <v>318.39999999999998</v>
+      </c>
+      <c r="R34" s="52">
+        <f>(Q34-O34)*N34</f>
+        <v>-14.611799999999562</v>
+      </c>
+      <c r="W34" s="52">
+        <v>21.07</v>
+      </c>
+      <c r="X34" s="46">
+        <f t="shared" si="8"/>
+        <v>3.8087139915565798E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B35" s="46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="47">
+        <v>6</v>
+      </c>
+      <c r="D35" s="47">
+        <v>88</v>
+      </c>
+      <c r="E35" s="47">
+        <v>72</v>
+      </c>
+      <c r="F35" s="47"/>
+      <c r="G35" s="48">
+        <v>522.94682</v>
+      </c>
+      <c r="H35" s="48">
+        <v>522.35943999999995</v>
+      </c>
+      <c r="I35" s="51">
+        <f>+G35*D35</f>
+        <v>46019.320160000003</v>
+      </c>
+      <c r="J35" s="51">
+        <f>+E35*H35</f>
+        <v>37609.879679999998</v>
+      </c>
+      <c r="K35" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.58738000000005286</v>
+      </c>
+      <c r="L35" s="46">
+        <f t="shared" si="2"/>
+        <v>72</v>
+      </c>
+      <c r="M35" s="52">
+        <f t="shared" si="3"/>
+        <v>-42.291360000003806</v>
+      </c>
+      <c r="N35" s="51">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="O35" s="52">
+        <f t="shared" si="6"/>
+        <v>522.94682</v>
+      </c>
+      <c r="P35" s="50">
+        <f t="shared" si="4"/>
+        <v>8367.14912</v>
+      </c>
+      <c r="Q35" s="52">
+        <v>519.92999999999995</v>
+      </c>
+      <c r="R35" s="52">
+        <f>(Q35-O35)*N35</f>
+        <v>-48.269120000000839</v>
+      </c>
+      <c r="W35" s="52">
+        <v>28.78</v>
+      </c>
+      <c r="X35" s="46">
+        <f t="shared" si="8"/>
+        <v>3.441381724931257E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B36" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="47">
+        <v>30</v>
+      </c>
+      <c r="D36" s="47">
+        <v>465</v>
+      </c>
+      <c r="E36" s="47">
+        <v>435</v>
+      </c>
+      <c r="F36" s="47"/>
+      <c r="G36" s="48">
+        <v>78.782259999999994</v>
+      </c>
+      <c r="H36" s="48">
+        <v>78.715519999999998</v>
+      </c>
+      <c r="I36" s="51">
+        <f>+G36*D36</f>
+        <v>36633.750899999999</v>
+      </c>
+      <c r="J36" s="51">
+        <f>+E36*H36</f>
+        <v>34241.251199999999</v>
+      </c>
+      <c r="K36" s="52">
+        <f t="shared" si="7"/>
+        <v>-6.6739999999995803E-2</v>
+      </c>
+      <c r="L36" s="46">
+        <f t="shared" si="2"/>
+        <v>435</v>
+      </c>
+      <c r="M36" s="52">
+        <f t="shared" si="3"/>
+        <v>-29.031899999998174</v>
+      </c>
+      <c r="N36" s="51">
+        <f t="shared" si="5"/>
+        <v>30</v>
+      </c>
+      <c r="O36" s="52">
+        <f t="shared" si="6"/>
+        <v>78.782259999999994</v>
+      </c>
+      <c r="P36" s="50">
+        <f t="shared" si="4"/>
+        <v>2363.4677999999999</v>
+      </c>
+      <c r="Q36" s="52">
+        <v>78.739999999999995</v>
+      </c>
+      <c r="R36" s="52">
+        <f>(Q36-O36)*N36</f>
+        <v>-1.2677999999999656</v>
+      </c>
+      <c r="W36" s="52">
+        <v>21.17</v>
+      </c>
+      <c r="X36" s="46">
+        <f t="shared" si="8"/>
+        <v>2.9869487651133352E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B37" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C37" s="47">
+        <v>0</v>
+      </c>
+      <c r="D37" s="47">
+        <v>423</v>
+      </c>
+      <c r="E37" s="47">
+        <v>468</v>
+      </c>
+      <c r="F37" s="47"/>
+      <c r="G37" s="48">
+        <v>113.61277</v>
+      </c>
+      <c r="H37" s="48">
+        <v>113.57308</v>
+      </c>
+      <c r="I37" s="51">
+        <f>+G37*D37</f>
+        <v>48058.201710000001</v>
+      </c>
+      <c r="J37" s="51">
+        <f>+E37*H37</f>
+        <v>53152.201440000004</v>
+      </c>
+      <c r="K37" s="52">
+        <f t="shared" si="7"/>
+        <v>-3.968999999999312E-2</v>
+      </c>
+      <c r="L37" s="46">
+        <f t="shared" si="2"/>
+        <v>423</v>
+      </c>
+      <c r="M37" s="52">
+        <f t="shared" si="3"/>
+        <v>-16.78886999999709</v>
+      </c>
+      <c r="N37" s="51">
+        <f t="shared" si="5"/>
+        <v>-45</v>
+      </c>
+      <c r="O37" s="52">
+        <f t="shared" si="6"/>
+        <v>113.57308</v>
+      </c>
+      <c r="P37" s="50">
+        <f t="shared" si="4"/>
+        <v>-5110.7885999999999</v>
+      </c>
+      <c r="Q37" s="52">
+        <v>111.9</v>
+      </c>
+      <c r="R37" s="52">
+        <f>(Q37-O37)*N37</f>
+        <v>75.288599999999946</v>
+      </c>
+      <c r="W37" s="52">
+        <v>34.31</v>
+      </c>
+      <c r="X37" s="46">
+        <f t="shared" si="8"/>
+        <v>3.3899677238860998E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B38" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" s="47">
+        <v>0</v>
+      </c>
+      <c r="D38" s="47">
+        <v>3</v>
+      </c>
+      <c r="E38" s="47">
+        <v>3</v>
+      </c>
+      <c r="F38" s="47"/>
+      <c r="G38" s="48">
+        <v>374.31</v>
+      </c>
+      <c r="H38" s="48">
+        <v>379.29</v>
+      </c>
+      <c r="I38" s="51">
+        <f>+G38*D38</f>
+        <v>1122.93</v>
+      </c>
+      <c r="J38" s="51">
+        <f>+E38*H38</f>
+        <v>1137.8700000000001</v>
+      </c>
+      <c r="K38" s="52">
+        <f t="shared" si="7"/>
+        <v>4.9800000000000182</v>
+      </c>
+      <c r="L38" s="46">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="M38" s="52">
+        <f t="shared" si="3"/>
+        <v>14.940000000000055</v>
+      </c>
+      <c r="N38" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O38" s="52">
+        <f t="shared" si="6"/>
+        <v>379.29</v>
+      </c>
+      <c r="P38" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="52">
+        <v>375.99</v>
+      </c>
+      <c r="R38" s="52">
+        <f>(Q38-O38)*N38</f>
+        <v>0</v>
+      </c>
+      <c r="W38" s="52">
+        <v>0.73</v>
+      </c>
+      <c r="X38" s="46">
+        <f t="shared" si="8"/>
+        <v>3.2289455060155692E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B39" s="46" t="s">
+        <v>11</v>
+      </c>
+      <c r="C39" s="47">
+        <v>5</v>
+      </c>
+      <c r="D39" s="47">
+        <v>43</v>
+      </c>
+      <c r="E39" s="47">
+        <v>43</v>
+      </c>
+      <c r="F39" s="47"/>
+      <c r="G39" s="48">
+        <v>1049.85744</v>
+      </c>
+      <c r="H39" s="48">
+        <v>1049.50233</v>
+      </c>
+      <c r="I39" s="51">
+        <f>+G39*D39</f>
+        <v>45143.869919999997</v>
+      </c>
+      <c r="J39" s="51">
+        <f>+E39*H39</f>
+        <v>45128.600190000005</v>
+      </c>
+      <c r="K39" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.35510999999996784</v>
+      </c>
+      <c r="L39" s="46">
+        <f t="shared" si="2"/>
+        <v>43</v>
+      </c>
+      <c r="M39" s="52">
+        <f t="shared" si="3"/>
+        <v>-15.269729999998617</v>
+      </c>
+      <c r="N39" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O39" s="52">
+        <f t="shared" si="6"/>
+        <v>1049.50233</v>
+      </c>
+      <c r="P39" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q39" s="52">
+        <v>1044</v>
+      </c>
+      <c r="R39" s="52">
+        <f>(Q39-O39)*N39</f>
+        <v>0</v>
+      </c>
+      <c r="W39" s="52">
+        <v>31.22</v>
+      </c>
+      <c r="X39" s="46">
+        <f t="shared" si="8"/>
+        <v>3.458418714139249E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B40" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="47">
+        <v>0</v>
+      </c>
+      <c r="D40" s="47">
+        <v>48</v>
+      </c>
+      <c r="E40" s="47">
+        <v>48</v>
+      </c>
+      <c r="F40" s="47"/>
+      <c r="G40" s="48">
+        <v>816.11582999999996</v>
+      </c>
+      <c r="H40" s="48">
+        <v>818.10645999999997</v>
+      </c>
+      <c r="I40" s="51">
+        <f>+G40*D40</f>
+        <v>39173.559840000002</v>
+      </c>
+      <c r="J40" s="51">
+        <f>+E40*H40</f>
+        <v>39269.110079999999</v>
+      </c>
+      <c r="K40" s="52">
+        <f t="shared" si="7"/>
+        <v>1.9906300000000101</v>
+      </c>
+      <c r="L40" s="46">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="M40" s="52">
+        <f t="shared" si="3"/>
+        <v>95.550240000000485</v>
+      </c>
+      <c r="N40" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O40" s="52">
+        <f t="shared" si="6"/>
+        <v>818.10645999999997</v>
+      </c>
+      <c r="P40" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q40" s="52">
+        <v>894.66</v>
+      </c>
+      <c r="R40" s="52">
+        <f>(Q40-O40)*N40</f>
+        <v>0</v>
+      </c>
+      <c r="W40" s="52">
+        <v>33.58</v>
+      </c>
+      <c r="X40" s="46">
+        <f t="shared" si="8"/>
+        <v>4.2808333824239622E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B41" s="46" t="s">
+        <v>12</v>
+      </c>
+      <c r="C41" s="47">
+        <v>0</v>
+      </c>
+      <c r="D41" s="47">
+        <v>298</v>
+      </c>
+      <c r="E41" s="47">
+        <v>348</v>
+      </c>
+      <c r="F41" s="47"/>
+      <c r="G41" s="48">
+        <v>103.66643999999999</v>
+      </c>
+      <c r="H41" s="48">
+        <v>103.51</v>
+      </c>
+      <c r="I41" s="51">
+        <f>+G41*D41</f>
+        <v>30892.599119999999</v>
+      </c>
+      <c r="J41" s="51">
+        <f>+E41*H41</f>
+        <v>36021.480000000003</v>
+      </c>
+      <c r="K41" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.15643999999998925</v>
+      </c>
+      <c r="L41" s="46">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="M41" s="52">
+        <f t="shared" si="3"/>
+        <v>-46.619119999996798</v>
+      </c>
+      <c r="N41" s="51">
+        <f t="shared" si="5"/>
+        <v>-50</v>
+      </c>
+      <c r="O41" s="52">
+        <f t="shared" si="6"/>
+        <v>103.51</v>
+      </c>
+      <c r="P41" s="50">
+        <f t="shared" si="4"/>
+        <v>-5175.5</v>
+      </c>
+      <c r="Q41" s="52">
+        <v>102.53</v>
+      </c>
+      <c r="R41" s="52">
+        <f>(Q41-O41)*N41</f>
+        <v>49.000000000000199</v>
+      </c>
+      <c r="W41" s="52">
+        <v>17.02</v>
+      </c>
+      <c r="X41" s="46">
+        <f t="shared" si="8"/>
+        <v>2.5435603723212381E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B42" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="C42" s="47">
+        <v>75</v>
+      </c>
+      <c r="D42" s="47">
+        <v>105</v>
+      </c>
+      <c r="E42" s="47">
+        <v>105</v>
+      </c>
+      <c r="F42" s="47"/>
+      <c r="G42" s="48">
+        <v>61.369430000000001</v>
+      </c>
+      <c r="H42" s="48">
+        <v>61.360500000000002</v>
+      </c>
+      <c r="I42" s="51">
+        <f>+G42*D42</f>
+        <v>6443.7901499999998</v>
+      </c>
+      <c r="J42" s="51">
+        <f>+E42*H42</f>
+        <v>6442.8525</v>
+      </c>
+      <c r="K42" s="52">
+        <f t="shared" si="7"/>
+        <v>-8.9299999999994384E-3</v>
+      </c>
+      <c r="L42" s="46">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="M42" s="52">
+        <f t="shared" si="3"/>
+        <v>-0.93764999999994103</v>
+      </c>
+      <c r="N42" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O42" s="52">
+        <f t="shared" si="6"/>
+        <v>61.360500000000002</v>
+      </c>
+      <c r="P42" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q42" s="52">
+        <v>61.71</v>
+      </c>
+      <c r="R42" s="52">
+        <f>(Q42-O42)*N42</f>
+        <v>0</v>
+      </c>
+      <c r="W42" s="52">
+        <v>26.09</v>
+      </c>
+      <c r="X42" s="46">
+        <f t="shared" si="8"/>
+        <v>2.0245769754467431E-3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B43" s="46" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43" s="47">
+        <v>60</v>
+      </c>
+      <c r="D43" s="47">
+        <v>105</v>
+      </c>
+      <c r="E43" s="47">
+        <v>120</v>
+      </c>
+      <c r="F43" s="47"/>
+      <c r="G43" s="48">
+        <v>110.12788999999999</v>
+      </c>
+      <c r="H43" s="48">
+        <v>110.24429000000001</v>
+      </c>
+      <c r="I43" s="51">
+        <f>+G43*D43</f>
+        <v>11563.428449999999</v>
+      </c>
+      <c r="J43" s="51">
+        <f>+E43*H43</f>
+        <v>13229.3148</v>
+      </c>
+      <c r="K43" s="52">
+        <f t="shared" si="7"/>
+        <v>0.11640000000001294</v>
+      </c>
+      <c r="L43" s="46">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="M43" s="52">
+        <f t="shared" si="3"/>
+        <v>12.222000000001358</v>
+      </c>
+      <c r="N43" s="51">
+        <f t="shared" si="5"/>
+        <v>-15</v>
+      </c>
+      <c r="O43" s="52">
+        <f t="shared" si="6"/>
+        <v>110.24429000000001</v>
+      </c>
+      <c r="P43" s="50">
+        <f t="shared" si="4"/>
+        <v>-1653.66435</v>
+      </c>
+      <c r="Q43" s="52">
+        <v>110.13</v>
+      </c>
+      <c r="R43" s="52">
+        <f>(Q43-O43)*N43</f>
+        <v>1.7143500000001666</v>
+      </c>
+      <c r="W43" s="52">
+        <v>10.67</v>
+      </c>
+      <c r="X43" s="46">
+        <f t="shared" si="8"/>
+        <v>4.3036786580686264E-4</v>
+      </c>
+    </row>
+    <row r="44" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B44" s="46" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="47">
+        <v>28</v>
+      </c>
+      <c r="D44" s="47">
+        <v>322</v>
+      </c>
+      <c r="E44" s="47">
+        <v>259</v>
+      </c>
+      <c r="F44" s="47"/>
+      <c r="G44" s="48">
+        <v>132.71087</v>
+      </c>
+      <c r="H44" s="48">
+        <v>132.83786000000001</v>
+      </c>
+      <c r="I44" s="51">
+        <f>+G44*D44</f>
+        <v>42732.900139999998</v>
+      </c>
+      <c r="J44" s="51">
+        <f>+E44*H44</f>
+        <v>34405.005740000001</v>
+      </c>
+      <c r="K44" s="52">
+        <f t="shared" si="7"/>
+        <v>0.12699000000000638</v>
+      </c>
+      <c r="L44" s="46">
+        <f t="shared" si="2"/>
+        <v>259</v>
+      </c>
+      <c r="M44" s="52">
+        <f t="shared" si="3"/>
+        <v>32.890410000001651</v>
+      </c>
+      <c r="N44" s="51">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+      <c r="O44" s="52">
+        <f t="shared" si="6"/>
+        <v>132.71087</v>
+      </c>
+      <c r="P44" s="50">
+        <f t="shared" si="4"/>
+        <v>8360.7848099999992</v>
+      </c>
+      <c r="Q44" s="52">
+        <v>131.99</v>
+      </c>
+      <c r="R44" s="52">
+        <f>(Q44-O44)*N44</f>
+        <v>-45.41480999999942</v>
+      </c>
+      <c r="W44" s="52">
+        <v>29.51</v>
+      </c>
+      <c r="X44" s="46">
+        <f t="shared" si="8"/>
+        <v>3.8256159100180122E-4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B45" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="C45" s="47">
+        <v>-32</v>
+      </c>
+      <c r="D45" s="47">
+        <v>152</v>
+      </c>
+      <c r="E45" s="47">
+        <v>184</v>
+      </c>
+      <c r="F45" s="47"/>
+      <c r="G45" s="48">
+        <v>141.83053000000001</v>
+      </c>
+      <c r="H45" s="48">
+        <v>141.41565</v>
+      </c>
+      <c r="I45" s="51">
+        <f>+G45*D45</f>
+        <v>21558.240560000002</v>
+      </c>
+      <c r="J45" s="51">
+        <f>+E45*H45</f>
+        <v>26020.479599999999</v>
+      </c>
+      <c r="K45" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.4148800000000108</v>
+      </c>
+      <c r="L45" s="46">
+        <f t="shared" si="2"/>
+        <v>152</v>
+      </c>
+      <c r="M45" s="52">
+        <f t="shared" si="3"/>
+        <v>-63.061760000001641</v>
+      </c>
+      <c r="N45" s="51">
+        <f t="shared" si="5"/>
+        <v>-32</v>
+      </c>
+      <c r="O45" s="52">
+        <f t="shared" si="6"/>
+        <v>141.41565</v>
+      </c>
+      <c r="P45" s="50">
+        <f t="shared" si="4"/>
+        <v>-4525.3008</v>
+      </c>
+      <c r="Q45" s="52">
+        <v>142</v>
+      </c>
+      <c r="R45" s="52">
+        <f>(Q45-O45)*N45</f>
+        <v>-18.699200000000019</v>
+      </c>
+      <c r="W45" s="52">
+        <v>14.84</v>
+      </c>
+      <c r="X45" s="46">
+        <f t="shared" si="8"/>
+        <v>3.1190414433375545E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B46" s="46" t="s">
+        <v>34</v>
+      </c>
+      <c r="C46" s="47">
+        <v>40</v>
+      </c>
+      <c r="D46" s="47">
+        <v>1560</v>
+      </c>
+      <c r="E46" s="47">
+        <v>1680</v>
+      </c>
+      <c r="F46" s="47"/>
+      <c r="G46" s="48">
+        <v>22.444099999999999</v>
+      </c>
+      <c r="H46" s="48">
+        <v>22.445709999999998</v>
+      </c>
+      <c r="I46" s="51">
+        <f>+G46*D46</f>
+        <v>35012.795999999995</v>
+      </c>
+      <c r="J46" s="51">
+        <f>+E46*H46</f>
+        <v>37708.792799999996</v>
+      </c>
+      <c r="K46" s="52">
+        <f t="shared" si="7"/>
+        <v>1.6099999999994452E-3</v>
+      </c>
+      <c r="L46" s="46">
+        <f t="shared" si="2"/>
+        <v>1560</v>
+      </c>
+      <c r="M46" s="52">
+        <f t="shared" si="3"/>
+        <v>2.5115999999991345</v>
+      </c>
+      <c r="N46" s="51">
+        <f t="shared" si="5"/>
+        <v>-120</v>
+      </c>
+      <c r="O46" s="52">
+        <f t="shared" si="6"/>
+        <v>22.445709999999998</v>
+      </c>
+      <c r="P46" s="50">
+        <f t="shared" si="4"/>
+        <v>-2693.4851999999996</v>
+      </c>
+      <c r="Q46" s="52">
+        <v>22.37</v>
+      </c>
+      <c r="R46" s="52">
+        <f>(Q46-O46)*N46</f>
+        <v>9.0851999999996735</v>
+      </c>
+      <c r="W46" s="52">
+        <v>26.45</v>
+      </c>
+      <c r="X46" s="46">
+        <f t="shared" si="8"/>
+        <v>3.6371592585446923E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B47" s="46" t="s">
+        <v>21</v>
+      </c>
+      <c r="C47" s="47">
+        <v>7</v>
+      </c>
+      <c r="D47" s="47">
+        <v>42</v>
+      </c>
+      <c r="E47" s="47">
+        <v>70</v>
+      </c>
+      <c r="F47" s="47"/>
+      <c r="G47" s="48">
+        <v>164.01667</v>
+      </c>
+      <c r="H47" s="48">
+        <v>164.245</v>
+      </c>
+      <c r="I47" s="51">
+        <f>+G47*D47</f>
+        <v>6888.7001399999999</v>
+      </c>
+      <c r="J47" s="51">
+        <f>+E47*H47</f>
+        <v>11497.15</v>
+      </c>
+      <c r="K47" s="52">
+        <f t="shared" si="7"/>
+        <v>0.2283299999999997</v>
+      </c>
+      <c r="L47" s="46">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="M47" s="52">
+        <f t="shared" si="3"/>
+        <v>9.5898599999999874</v>
+      </c>
+      <c r="N47" s="51">
+        <f t="shared" si="5"/>
+        <v>-28</v>
+      </c>
+      <c r="O47" s="52">
+        <f t="shared" si="6"/>
+        <v>164.245</v>
+      </c>
+      <c r="P47" s="50">
+        <f t="shared" si="4"/>
+        <v>-4598.8600000000006</v>
+      </c>
+      <c r="Q47" s="52">
+        <v>164.38</v>
+      </c>
+      <c r="R47" s="52">
+        <f>(Q47-O47)*N47</f>
+        <v>-3.7799999999997453</v>
+      </c>
+      <c r="W47" s="52">
+        <v>5.83</v>
+      </c>
+      <c r="X47" s="46">
+        <f t="shared" si="8"/>
+        <v>3.1709167406495574E-4</v>
+      </c>
+    </row>
+    <row r="48" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B48" s="46" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" s="47">
+        <v>0</v>
+      </c>
+      <c r="D48" s="47">
+        <v>165</v>
+      </c>
+      <c r="E48" s="47">
+        <v>165</v>
+      </c>
+      <c r="F48" s="47"/>
+      <c r="G48" s="48">
+        <v>264.77879000000001</v>
+      </c>
+      <c r="H48" s="48">
+        <v>264.99515000000002</v>
+      </c>
+      <c r="I48" s="51">
+        <f>+G48*D48</f>
+        <v>43688.500350000002</v>
+      </c>
+      <c r="J48" s="51">
+        <f>+E48*H48</f>
+        <v>43724.199750000007</v>
+      </c>
+      <c r="K48" s="52">
+        <f t="shared" si="7"/>
+        <v>0.21636000000000877</v>
+      </c>
+      <c r="L48" s="46">
+        <f t="shared" si="2"/>
+        <v>165</v>
+      </c>
+      <c r="M48" s="52">
+        <f t="shared" si="3"/>
+        <v>35.699400000001447</v>
+      </c>
+      <c r="N48" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O48" s="52">
+        <f t="shared" si="6"/>
+        <v>264.99515000000002</v>
+      </c>
+      <c r="P48" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q48" s="52">
+        <v>265.02999999999997</v>
+      </c>
+      <c r="R48" s="52">
+        <f>(Q48-O48)*N48</f>
+        <v>0</v>
+      </c>
+      <c r="W48" s="52">
+        <v>22.98</v>
+      </c>
+      <c r="X48" s="46">
+        <f t="shared" si="8"/>
+        <v>2.6289086109582371E-4</v>
+      </c>
+    </row>
+    <row r="49" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B49" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49" s="47">
+        <v>36</v>
+      </c>
+      <c r="D49" s="47">
+        <v>636</v>
+      </c>
+      <c r="E49" s="47">
+        <v>600</v>
+      </c>
+      <c r="F49" s="47"/>
+      <c r="G49" s="48">
+        <v>101.79038</v>
+      </c>
+      <c r="H49" s="48">
+        <v>101.90799</v>
+      </c>
+      <c r="I49" s="51">
+        <f>+G49*D49</f>
+        <v>64738.681680000002</v>
+      </c>
+      <c r="J49" s="51">
+        <f>+E49*H49</f>
+        <v>61144.794000000002</v>
+      </c>
+      <c r="K49" s="52">
+        <f t="shared" si="7"/>
+        <v>0.1176099999999991</v>
+      </c>
+      <c r="L49" s="46">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="M49" s="52">
+        <f t="shared" si="3"/>
+        <v>70.565999999999462</v>
+      </c>
+      <c r="N49" s="51">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="O49" s="52">
+        <f t="shared" si="6"/>
+        <v>101.79038</v>
+      </c>
+      <c r="P49" s="50">
+        <f t="shared" si="4"/>
+        <v>3664.4536800000001</v>
+      </c>
+      <c r="Q49" s="52">
+        <v>100.4</v>
+      </c>
+      <c r="R49" s="52">
+        <f>(Q49-O49)*N49</f>
+        <v>-50.053679999999758</v>
+      </c>
+      <c r="W49" s="52">
+        <v>35.65</v>
+      </c>
+      <c r="X49" s="46">
+        <f t="shared" si="8"/>
+        <v>2.8319840874606517E-4</v>
+      </c>
+    </row>
+    <row r="50" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B50" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50" s="47">
+        <v>-35</v>
+      </c>
+      <c r="D50" s="47">
+        <v>287</v>
+      </c>
+      <c r="E50" s="47">
+        <v>287</v>
+      </c>
+      <c r="F50" s="47"/>
+      <c r="G50" s="48">
+        <v>168.25658999999999</v>
+      </c>
+      <c r="H50" s="48">
+        <v>168.13585</v>
+      </c>
+      <c r="I50" s="51">
+        <f>+G50*D50</f>
+        <v>48289.641329999999</v>
+      </c>
+      <c r="J50" s="51">
+        <f>+E50*H50</f>
+        <v>48254.988949999999</v>
+      </c>
+      <c r="K50" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.12073999999998364</v>
+      </c>
+      <c r="L50" s="46">
+        <f t="shared" si="2"/>
+        <v>287</v>
+      </c>
+      <c r="M50" s="52">
+        <f t="shared" si="3"/>
+        <v>-34.652379999995304</v>
+      </c>
+      <c r="N50" s="51">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="O50" s="52">
+        <f t="shared" si="6"/>
+        <v>168.13585</v>
+      </c>
+      <c r="P50" s="50">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q50" s="52">
+        <v>167.86</v>
+      </c>
+      <c r="R50" s="52">
+        <f>(Q50-O50)*N50</f>
+        <v>0</v>
+      </c>
+      <c r="W50" s="52">
+        <v>29.56</v>
+      </c>
+      <c r="X50" s="46">
+        <f t="shared" si="8"/>
+        <v>3.0617963851816202E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B51" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51" s="47">
+        <v>28</v>
+      </c>
+      <c r="D51" s="47">
+        <v>273</v>
+      </c>
+      <c r="E51" s="47">
+        <v>245</v>
+      </c>
+      <c r="F51" s="47"/>
+      <c r="G51" s="48">
+        <v>142.10872000000001</v>
+      </c>
+      <c r="H51" s="48">
+        <v>142.03</v>
+      </c>
+      <c r="I51" s="51">
+        <f>+G51*D51</f>
+        <v>38795.680560000001</v>
+      </c>
+      <c r="J51" s="51">
+        <f>+E51*H51</f>
+        <v>34797.35</v>
+      </c>
+      <c r="K51" s="52">
+        <f t="shared" si="7"/>
+        <v>-7.872000000000412E-2</v>
+      </c>
+      <c r="L51" s="46">
+        <f t="shared" si="2"/>
+        <v>245</v>
+      </c>
+      <c r="M51" s="52">
+        <f t="shared" si="3"/>
+        <v>-19.286400000001009</v>
+      </c>
+      <c r="N51" s="51">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="O51" s="52">
+        <f t="shared" si="6"/>
+        <v>142.10872000000001</v>
+      </c>
+      <c r="P51" s="50">
+        <f t="shared" si="4"/>
+        <v>3979.0441600000004</v>
+      </c>
+      <c r="Q51" s="52">
+        <v>141.12</v>
+      </c>
+      <c r="R51" s="52">
+        <f>(Q51-O51)*N51</f>
+        <v>-27.68416000000002</v>
+      </c>
+      <c r="W51" s="52">
+        <v>25.96</v>
+      </c>
+      <c r="X51" s="46">
+        <f t="shared" si="8"/>
+        <v>3.5275079450403871E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B52" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C52" s="47">
+        <v>10</v>
+      </c>
+      <c r="D52" s="47">
+        <v>400</v>
+      </c>
+      <c r="E52" s="47">
+        <v>340</v>
+      </c>
+      <c r="F52" s="47"/>
+      <c r="G52" s="48">
+        <v>120.60175</v>
+      </c>
+      <c r="H52" s="48">
+        <v>120.37147</v>
+      </c>
+      <c r="I52" s="51">
+        <f>+G52*D52</f>
+        <v>48240.7</v>
+      </c>
+      <c r="J52" s="51">
+        <f>+E52*H52</f>
+        <v>40926.299800000001</v>
+      </c>
+      <c r="K52" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.23027999999999338</v>
+      </c>
+      <c r="L52" s="46">
+        <f t="shared" si="2"/>
+        <v>340</v>
+      </c>
+      <c r="M52" s="52">
+        <f t="shared" si="3"/>
+        <v>-78.295199999997749</v>
+      </c>
+      <c r="N52" s="51">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+      <c r="O52" s="52">
+        <f t="shared" si="6"/>
+        <v>120.60175</v>
+      </c>
+      <c r="P52" s="50">
+        <f t="shared" si="4"/>
+        <v>7236.1049999999996</v>
+      </c>
+      <c r="Q52" s="52">
+        <v>120.11</v>
+      </c>
+      <c r="R52" s="52">
+        <f>(Q52-O52)*N52</f>
+        <v>-29.504999999999768</v>
+      </c>
+      <c r="W52" s="52">
+        <v>26.39</v>
+      </c>
+      <c r="X52" s="46">
+        <f t="shared" si="8"/>
+        <v>2.9596151108809656E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B53" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C53" s="47">
+        <v>32</v>
+      </c>
+      <c r="D53" s="47">
+        <v>164</v>
+      </c>
+      <c r="E53" s="47">
+        <v>112</v>
+      </c>
+      <c r="F53" s="47"/>
+      <c r="G53" s="48">
+        <v>273.33877999999999</v>
+      </c>
+      <c r="H53" s="48">
+        <v>273.78892999999999</v>
+      </c>
+      <c r="I53" s="51">
+        <f>+G53*D53</f>
+        <v>44827.55992</v>
+      </c>
+      <c r="J53" s="51">
+        <f>+E53*H53</f>
+        <v>30664.36016</v>
+      </c>
+      <c r="K53" s="52">
+        <f t="shared" si="7"/>
+        <v>0.45015000000000782</v>
+      </c>
+      <c r="L53" s="46">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="M53" s="52">
+        <f t="shared" si="3"/>
+        <v>50.416800000000876</v>
+      </c>
+      <c r="N53" s="51">
+        <f t="shared" si="5"/>
+        <v>52</v>
+      </c>
+      <c r="O53" s="52">
+        <f t="shared" si="6"/>
+        <v>273.33877999999999</v>
+      </c>
+      <c r="P53" s="50">
+        <f t="shared" si="4"/>
+        <v>14213.616559999999</v>
+      </c>
+      <c r="Q53" s="52">
+        <v>271</v>
+      </c>
+      <c r="R53" s="52">
+        <f>(Q53-O53)*N53</f>
+        <v>-121.61655999999925</v>
+      </c>
+      <c r="W53" s="52">
+        <v>24.77</v>
+      </c>
+      <c r="X53" s="46">
+        <f t="shared" si="8"/>
+        <v>3.2811458463039266E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B54" s="46" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="47">
+        <v>0</v>
+      </c>
+      <c r="D54" s="47">
+        <v>880</v>
+      </c>
+      <c r="E54" s="47">
+        <v>780</v>
+      </c>
+      <c r="F54" s="47"/>
+      <c r="G54" s="48">
+        <v>52.811590000000002</v>
+      </c>
+      <c r="H54" s="48">
+        <v>52.835380000000001</v>
+      </c>
+      <c r="I54" s="51">
+        <f>+G54*D54</f>
+        <v>46474.199200000003</v>
+      </c>
+      <c r="J54" s="51">
+        <f>+E54*H54</f>
+        <v>41211.596400000002</v>
+      </c>
+      <c r="K54" s="52">
+        <f t="shared" si="7"/>
+        <v>2.3789999999998201E-2</v>
+      </c>
+      <c r="L54" s="46">
+        <f t="shared" si="2"/>
+        <v>780</v>
+      </c>
+      <c r="M54" s="52">
+        <f t="shared" si="3"/>
+        <v>18.556199999998597</v>
+      </c>
+      <c r="N54" s="51">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="O54" s="52">
+        <f t="shared" si="6"/>
+        <v>52.811590000000002</v>
+      </c>
+      <c r="P54" s="50">
+        <f t="shared" si="4"/>
+        <v>5281.1590000000006</v>
+      </c>
+      <c r="Q54" s="52">
+        <v>53.2</v>
+      </c>
+      <c r="R54" s="52">
+        <f>(Q54-O54)*N54</f>
+        <v>38.841000000000037</v>
+      </c>
+      <c r="W54" s="52">
+        <v>27.32</v>
+      </c>
+      <c r="X54" s="46">
+        <f t="shared" si="8"/>
+        <v>3.1156699683295108E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B55" s="46" t="s">
+        <v>78</v>
+      </c>
+      <c r="C55" s="47">
+        <v>-40</v>
+      </c>
+      <c r="D55" s="47">
+        <v>1320</v>
+      </c>
+      <c r="E55" s="47">
+        <v>1160</v>
+      </c>
+      <c r="F55" s="47"/>
+      <c r="G55" s="48">
+        <v>27.092420000000001</v>
+      </c>
+      <c r="H55" s="48">
+        <v>27.094139999999999</v>
+      </c>
+      <c r="I55" s="51">
+        <f>+G55*D55</f>
+        <v>35761.994400000003</v>
+      </c>
+      <c r="J55" s="51">
+        <f>+E55*H55</f>
+        <v>31429.202399999998</v>
+      </c>
+      <c r="K55" s="52">
+        <f t="shared" si="7"/>
+        <v>1.7199999999988336E-3</v>
+      </c>
+      <c r="L55" s="46">
+        <f t="shared" si="2"/>
+        <v>1160</v>
+      </c>
+      <c r="M55" s="52">
+        <f t="shared" si="3"/>
+        <v>1.9951999999986469</v>
+      </c>
+      <c r="N55" s="51">
+        <f t="shared" si="5"/>
+        <v>160</v>
+      </c>
+      <c r="O55" s="52">
+        <f t="shared" si="6"/>
+        <v>27.092420000000001</v>
+      </c>
+      <c r="P55" s="50">
+        <f t="shared" si="4"/>
+        <v>4334.7871999999998</v>
+      </c>
+      <c r="Q55" s="52">
+        <v>27.16</v>
+      </c>
+      <c r="R55" s="52">
+        <f>(Q55-O55)*N55</f>
+        <v>10.812799999999925</v>
+      </c>
+      <c r="W55" s="52">
+        <v>20.39</v>
+      </c>
+      <c r="X55" s="46">
+        <f t="shared" si="8"/>
+        <v>3.0346237261843204E-4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B56" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C56" s="47">
+        <v>0</v>
+      </c>
+      <c r="D56" s="47">
+        <v>68</v>
+      </c>
+      <c r="E56" s="47">
+        <v>77</v>
+      </c>
+      <c r="F56" s="47"/>
+      <c r="G56" s="48">
+        <v>435.64440999999999</v>
+      </c>
+      <c r="H56" s="48">
+        <v>436.22617000000002</v>
+      </c>
+      <c r="I56" s="51">
+        <f>+G56*D56</f>
+        <v>29623.819879999999</v>
+      </c>
+      <c r="J56" s="51">
+        <f>+E56*H56</f>
+        <v>33589.415090000002</v>
+      </c>
+      <c r="K56" s="52">
+        <f t="shared" si="7"/>
+        <v>0.58176000000003114</v>
+      </c>
+      <c r="L56" s="46">
+        <f t="shared" si="2"/>
+        <v>68</v>
+      </c>
+      <c r="M56" s="52">
+        <f t="shared" si="3"/>
+        <v>39.559680000002118</v>
+      </c>
+      <c r="N56" s="51">
+        <f t="shared" si="5"/>
+        <v>-9</v>
+      </c>
+      <c r="O56" s="52">
+        <f t="shared" si="6"/>
+        <v>436.22617000000002</v>
+      </c>
+      <c r="P56" s="50">
+        <f t="shared" si="4"/>
+        <v>-3926.0355300000001</v>
+      </c>
+      <c r="Q56" s="52">
+        <v>430</v>
+      </c>
+      <c r="R56" s="52">
+        <f>(Q56-O56)*N56</f>
+        <v>56.035530000000222</v>
+      </c>
+      <c r="W56" s="52">
+        <v>24.63</v>
+      </c>
+      <c r="X56" s="46">
+        <f t="shared" si="8"/>
+        <v>3.8963359511167252E-4</v>
+      </c>
+    </row>
+    <row r="57" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B57" s="46" t="s">
+        <v>48</v>
+      </c>
+      <c r="C57" s="47">
+        <v>8</v>
+      </c>
+      <c r="D57" s="47">
+        <v>164</v>
+      </c>
+      <c r="E57" s="47">
+        <v>136</v>
+      </c>
+      <c r="F57" s="47"/>
+      <c r="G57" s="48">
+        <v>259.29462999999998</v>
+      </c>
+      <c r="H57" s="48">
+        <v>259.48676</v>
+      </c>
+      <c r="I57" s="51">
+        <f>+G57*D57</f>
+        <v>42524.319319999995</v>
+      </c>
+      <c r="J57" s="51">
+        <f>+E57*H57</f>
+        <v>35290.199359999999</v>
+      </c>
+      <c r="K57" s="52">
+        <f t="shared" si="7"/>
+        <v>0.19213000000002012</v>
+      </c>
+      <c r="L57" s="46">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="M57" s="52">
+        <f t="shared" si="3"/>
+        <v>26.129680000002736</v>
+      </c>
+      <c r="N57" s="51">
+        <f t="shared" si="5"/>
+        <v>28</v>
+      </c>
+      <c r="O57" s="52">
+        <f t="shared" si="6"/>
+        <v>259.29462999999998</v>
+      </c>
+      <c r="P57" s="50">
+        <f t="shared" si="4"/>
+        <v>7260.24964</v>
+      </c>
+      <c r="Q57" s="52">
+        <v>260.10000000000002</v>
+      </c>
+      <c r="R57" s="52">
+        <f>(Q57-O57)*N57</f>
+        <v>22.550360000001092</v>
+      </c>
+      <c r="W57" s="52">
+        <v>26.71</v>
+      </c>
+      <c r="X57" s="46">
+        <f t="shared" si="8"/>
+        <v>3.4325213922919306E-4</v>
+      </c>
+    </row>
+    <row r="58" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B58" s="46" t="s">
+        <v>13</v>
+      </c>
+      <c r="C58" s="47">
+        <v>0</v>
+      </c>
+      <c r="D58" s="47">
+        <v>204</v>
+      </c>
+      <c r="E58" s="47">
+        <v>224</v>
+      </c>
+      <c r="F58" s="47"/>
+      <c r="G58" s="48">
+        <v>255.4451</v>
+      </c>
+      <c r="H58" s="48">
+        <v>255.01696000000001</v>
+      </c>
+      <c r="I58" s="51">
+        <f>+G58*D58</f>
+        <v>52110.8004</v>
+      </c>
+      <c r="J58" s="51">
+        <f>+E58*H58</f>
+        <v>57123.799040000005</v>
+      </c>
+      <c r="K58" s="52">
+        <f t="shared" si="7"/>
+        <v>-0.42813999999998487</v>
+      </c>
+      <c r="L58" s="46">
+        <f t="shared" si="2"/>
+        <v>204</v>
+      </c>
+      <c r="M58" s="52">
+        <f t="shared" si="3"/>
+        <v>-87.340559999996913</v>
+      </c>
+      <c r="N58" s="51">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="O58" s="52">
+        <f t="shared" si="6"/>
+        <v>255.01696000000001</v>
+      </c>
+      <c r="P58" s="50">
+        <f t="shared" si="4"/>
+        <v>-5100.3392000000003</v>
+      </c>
+      <c r="Q58" s="52">
+        <v>250.9</v>
+      </c>
+      <c r="R58" s="52">
+        <f>(Q58-O58)*N58</f>
+        <v>82.339200000000119</v>
+      </c>
+      <c r="W58" s="52">
+        <v>37.950000000000003</v>
+      </c>
+      <c r="X58" s="46">
+        <f t="shared" si="8"/>
+        <v>3.4741739517106979E-4</v>
+      </c>
+    </row>
+    <row r="59" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B59" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C59" s="47">
+        <v>32</v>
+      </c>
+      <c r="D59" s="47">
+        <v>359</v>
+      </c>
+      <c r="E59" s="47">
+        <v>292</v>
+      </c>
+      <c r="F59" s="47"/>
+      <c r="G59" s="48">
+        <v>157.62306000000001</v>
+      </c>
+      <c r="H59" s="48">
+        <v>157.67938000000001</v>
+      </c>
+      <c r="I59" s="51">
+        <f>+G59*D59</f>
+        <v>56586.678540000001</v>
+      </c>
+      <c r="J59" s="51">
+        <f>+E59*H59</f>
+        <v>46042.378960000002</v>
+      </c>
+      <c r="K59" s="52">
+        <f t="shared" si="7"/>
+        <v>5.6319999999999482E-2</v>
+      </c>
+      <c r="L59" s="46">
+        <f t="shared" si="2"/>
+        <v>292</v>
+      </c>
+      <c r="M59" s="52">
+        <f t="shared" si="3"/>
+        <v>16.445439999999849</v>
+      </c>
+      <c r="N59" s="51">
+        <f t="shared" si="5"/>
+        <v>67</v>
+      </c>
+      <c r="O59" s="52">
+        <f t="shared" si="6"/>
+        <v>157.62306000000001</v>
+      </c>
+      <c r="P59" s="50">
+        <f t="shared" si="4"/>
+        <v>10560.74502</v>
+      </c>
+      <c r="Q59" s="52">
+        <v>157.02000000000001</v>
+      </c>
+      <c r="R59" s="52">
+        <f>(Q59-O59)*N59</f>
+        <v>-40.405019999999951</v>
+      </c>
+      <c r="W59" s="52">
+        <v>30.82</v>
+      </c>
+      <c r="X59" s="46">
+        <f t="shared" si="8"/>
+        <v>3.0030481377070039E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B60" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C60" s="47">
+        <v>75</v>
+      </c>
+      <c r="D60" s="47">
+        <v>405</v>
+      </c>
+      <c r="E60" s="47">
+        <v>330</v>
+      </c>
+      <c r="F60" s="47"/>
+      <c r="G60" s="48">
+        <v>74.133700000000005</v>
+      </c>
+      <c r="H60" s="48">
+        <v>74.234549999999999</v>
+      </c>
+      <c r="I60" s="51">
+        <f>+G60*D60</f>
+        <v>30024.148500000003</v>
+      </c>
+      <c r="J60" s="51">
+        <f>+E60*H60</f>
+        <v>24497.4015</v>
+      </c>
+      <c r="K60" s="52">
+        <f t="shared" si="7"/>
+        <v>0.10084999999999411</v>
+      </c>
+      <c r="L60" s="46">
+        <f t="shared" si="2"/>
+        <v>330</v>
+      </c>
+      <c r="M60" s="52">
+        <f t="shared" si="3"/>
+        <v>33.280499999998057</v>
+      </c>
+      <c r="N60" s="51">
+        <f t="shared" si="5"/>
+        <v>75</v>
+      </c>
+      <c r="O60" s="52">
+        <f t="shared" si="6"/>
+        <v>74.133700000000005</v>
+      </c>
+      <c r="P60" s="50">
+        <f t="shared" si="4"/>
+        <v>5560.0275000000001</v>
+      </c>
+      <c r="Q60" s="52">
+        <v>73.89</v>
+      </c>
+      <c r="R60" s="52">
+        <f>(Q60-O60)*N60</f>
+        <v>-18.277500000000302</v>
+      </c>
+      <c r="W60" s="52">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="X60" s="46">
+        <f t="shared" si="8"/>
+        <v>3.1528817504271247E-4</v>
+      </c>
+    </row>
+    <row r="61" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B61" s="46" t="s">
+        <v>38</v>
+      </c>
+      <c r="C61" s="47">
+        <v>0</v>
+      </c>
+      <c r="D61" s="47">
+        <v>30</v>
+      </c>
+      <c r="E61" s="47">
+        <v>50</v>
+      </c>
+      <c r="F61" s="47"/>
+      <c r="G61" s="48">
+        <v>433.30333000000002</v>
+      </c>
+      <c r="H61" s="48">
+        <v>432.23899999999998</v>
+      </c>
+      <c r="I61" s="51">
+        <f t="shared" ref="I61:I64" si="9">+G61*D61</f>
+        <v>12999.099900000001</v>
+      </c>
+      <c r="J61" s="51">
+        <f t="shared" ref="J61:J64" si="10">+E61*H61</f>
+        <v>21611.949999999997</v>
+      </c>
+      <c r="K61" s="52">
+        <f t="shared" si="7"/>
+        <v>-1.0643300000000409</v>
+      </c>
+      <c r="L61" s="46">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+      <c r="M61" s="52">
+        <f t="shared" si="3"/>
+        <v>-31.929900000001226</v>
+      </c>
+      <c r="N61" s="51">
+        <f t="shared" si="5"/>
+        <v>-20</v>
+      </c>
+      <c r="O61" s="52">
+        <f t="shared" si="6"/>
+        <v>432.23899999999998</v>
+      </c>
+      <c r="P61" s="50">
+        <f t="shared" si="4"/>
+        <v>-8644.7799999999988</v>
+      </c>
+      <c r="Q61" s="52">
+        <v>428</v>
+      </c>
+      <c r="R61" s="52">
+        <f>(Q61-O61)*N61</f>
+        <v>84.779999999999518</v>
+      </c>
+      <c r="W61" s="52">
+        <v>12.8</v>
+      </c>
+      <c r="X61" s="46">
+        <f t="shared" si="8"/>
+        <v>3.6982408904041945E-4</v>
+      </c>
+    </row>
+    <row r="62" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B62" s="46" t="s">
+        <v>36</v>
+      </c>
+      <c r="C62" s="47">
+        <v>18</v>
+      </c>
+      <c r="D62" s="47">
+        <v>174</v>
+      </c>
+      <c r="E62" s="47">
+        <v>141</v>
+      </c>
+      <c r="F62" s="47"/>
+      <c r="G62" s="48">
+        <v>336.22052000000002</v>
+      </c>
+      <c r="H62" s="48">
+        <v>336.69617</v>
+      </c>
+      <c r="I62" s="51">
+        <f t="shared" si="9"/>
+        <v>58502.370480000005</v>
+      </c>
+      <c r="J62" s="51">
+        <f t="shared" si="10"/>
+        <v>47474.159970000001</v>
+      </c>
+      <c r="K62" s="52">
+        <f t="shared" si="7"/>
+        <v>0.47564999999997326</v>
+      </c>
+      <c r="L62" s="46">
+        <f t="shared" si="2"/>
+        <v>141</v>
+      </c>
+      <c r="M62" s="52">
+        <f t="shared" si="3"/>
+        <v>67.06664999999623</v>
+      </c>
+      <c r="N62" s="51">
+        <f t="shared" si="5"/>
+        <v>33</v>
+      </c>
+      <c r="O62" s="52">
+        <f t="shared" si="6"/>
+        <v>336.22052000000002</v>
+      </c>
+      <c r="P62" s="50">
+        <f t="shared" si="4"/>
+        <v>11095.277160000001</v>
+      </c>
+      <c r="Q62" s="52">
+        <v>334.37</v>
+      </c>
+      <c r="R62" s="52">
+        <f>(Q62-O62)*N62</f>
+        <v>-61.06716000000057</v>
+      </c>
+      <c r="W62" s="52">
+        <v>37.82</v>
+      </c>
+      <c r="X62" s="46">
+        <f t="shared" si="8"/>
+        <v>3.5687146804493254E-4</v>
+      </c>
+    </row>
+    <row r="63" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B63" s="46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C63" s="47">
+        <v>0</v>
+      </c>
+      <c r="D63" s="47">
+        <v>725</v>
+      </c>
+      <c r="E63" s="47">
+        <v>600</v>
+      </c>
+      <c r="F63" s="47"/>
+      <c r="G63" s="48">
+        <v>42.473970000000001</v>
+      </c>
+      <c r="H63" s="48">
+        <v>42.443330000000003</v>
+      </c>
+      <c r="I63" s="51">
+        <f t="shared" si="9"/>
+        <v>30793.628250000002</v>
+      </c>
+      <c r="J63" s="51">
+        <f t="shared" si="10"/>
+        <v>25465.998000000003</v>
+      </c>
+      <c r="K63" s="52">
+        <f t="shared" si="7"/>
+        <v>-3.0639999999998224E-2</v>
+      </c>
+      <c r="L63" s="46">
+        <f t="shared" si="2"/>
+        <v>600</v>
+      </c>
+      <c r="M63" s="52">
+        <f t="shared" si="3"/>
+        <v>-18.383999999998935</v>
+      </c>
+      <c r="N63" s="51">
+        <f t="shared" si="5"/>
+        <v>125</v>
+      </c>
+      <c r="O63" s="52">
+        <f t="shared" si="6"/>
+        <v>42.473970000000001</v>
+      </c>
+      <c r="P63" s="50">
+        <f t="shared" si="4"/>
+        <v>5309.2462500000001</v>
+      </c>
+      <c r="Q63" s="52">
+        <v>42.7</v>
+      </c>
+      <c r="R63" s="52">
+        <f>(Q63-O63)*N63</f>
+        <v>28.253750000000188</v>
+      </c>
+      <c r="W63" s="52">
+        <v>18.12</v>
+      </c>
+      <c r="X63" s="46">
+        <f t="shared" si="8"/>
+        <v>3.2207821501480382E-4</v>
+      </c>
+    </row>
+    <row r="64" spans="2:24" x14ac:dyDescent="0.2">
+      <c r="B64" s="46" t="s">
+        <v>22</v>
+      </c>
+      <c r="C64" s="47">
+        <v>74</v>
+      </c>
+      <c r="D64" s="47">
+        <v>278</v>
+      </c>
+      <c r="E64" s="47">
+        <v>168</v>
+      </c>
+      <c r="F64" s="47"/>
+      <c r="G64" s="48">
+        <v>94.960139999999996</v>
+      </c>
+      <c r="H64" s="48">
+        <v>95.054289999999995</v>
+      </c>
+      <c r="I64" s="51">
+        <f t="shared" si="9"/>
+        <v>26398.91892</v>
+      </c>
+      <c r="J64" s="51">
+        <f t="shared" si="10"/>
+        <v>15969.120719999999</v>
+      </c>
+      <c r="K64" s="52">
+        <f t="shared" si="7"/>
+        <v>9.4149999999999068E-2</v>
+      </c>
+      <c r="L64" s="46">
+        <f t="shared" si="2"/>
+        <v>168</v>
+      </c>
+      <c r="M64" s="52">
+        <f t="shared" si="3"/>
+        <v>15.817199999999843</v>
+      </c>
+      <c r="N64" s="51">
+        <f t="shared" si="5"/>
+        <v>110</v>
+      </c>
+      <c r="O64" s="52">
+        <f t="shared" si="6"/>
+        <v>94.960139999999996</v>
+      </c>
+      <c r="P64" s="50">
+        <f t="shared" si="4"/>
+        <v>10445.615399999999</v>
+      </c>
+      <c r="Q64" s="52">
+        <v>94.7</v>
+      </c>
+      <c r="R64" s="52">
+        <f>(Q64-O64)*N64</f>
+        <v>-28.615399999999198</v>
+      </c>
+      <c r="W64" s="52">
+        <v>13.35</v>
+      </c>
+      <c r="X64" s="46">
+        <f t="shared" si="8"/>
+        <v>3.1509600428612132E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60CE5705-A203-4554-921B-8DE9C7B1BAD0}">
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
